--- a/Parallel.xlsx
+++ b/Parallel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="588">
   <si>
     <t>Line</t>
   </si>
@@ -150,9 +150,6 @@
     <t>8.000000</t>
   </si>
   <si>
-    <t>par</t>
-  </si>
-  <si>
     <t>9.000000</t>
   </si>
   <si>
@@ -1765,6 +1762,24 @@
   </si>
   <si>
     <t>0xe4190d</t>
+  </si>
+  <si>
+    <t>IJK | 0.2340</t>
+  </si>
+  <si>
+    <t>IJK-IKJ | 0.7340</t>
+  </si>
+  <si>
+    <t>IJK | 0.2650</t>
+  </si>
+  <si>
+    <t>IJK-IKJ | 0.4530</t>
+  </si>
+  <si>
+    <t>IJK-IKJ | 0.4840</t>
+  </si>
+  <si>
+    <t>IJK-IKJ | 0.0620</t>
   </si>
 </sst>
 </file>
@@ -2338,10 +2353,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J144"/>
+  <dimension ref="A1:J158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -2404,10 +2419,10 @@
         <v>66</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -2426,7 +2441,7 @@
         <v>67</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -2436,7 +2451,7 @@
         <v>34</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>34</v>
@@ -2446,7 +2461,7 @@
         <v>29</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.75">
@@ -2454,27 +2469,27 @@
         <v>68</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="12.75">
@@ -2482,29 +2497,29 @@
         <v>69</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15">
@@ -2558,17 +2573,17 @@
         <v>79</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>12</v>
@@ -2582,7 +2597,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>28</v>
@@ -2592,7 +2607,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>29</v>
@@ -2601,10 +2616,10 @@
         <v>22</v>
       </c>
       <c r="I10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="12.75">
@@ -2612,29 +2627,29 @@
         <v>81</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>56</v>
-      </c>
       <c r="G11" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="12.75">
@@ -2642,29 +2657,29 @@
         <v>82</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="G12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="J12" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="12.75">
@@ -2672,29 +2687,29 @@
         <v>83</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="11" t="s">
+      <c r="I13" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="J13" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="13.5" thickBot="1">
@@ -2702,1527 +2717,1413 @@
         <v>84</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>73</v>
-      </c>
       <c r="G14" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="J14" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J14" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" thickBot="1">
-      <c r="A15" s="54">
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A15" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A16" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" thickBot="1">
+      <c r="A17" s="54">
         <v>1024</v>
       </c>
-      <c r="B15" s="54">
+      <c r="B17" s="54">
         <v>64</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C17" s="54">
         <v>3</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-    </row>
-    <row r="16" spans="1:10" ht="12.75">
-      <c r="A16" s="13" t="s">
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+    </row>
+    <row r="18" spans="1:10" ht="12.75">
+      <c r="A18" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B18" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E18" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J18" s="13" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="12.75">
-      <c r="A17" s="14">
-        <v>67</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="12.75">
-      <c r="A18" s="14">
-        <v>68</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="12.75">
       <c r="A19" s="14">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="12.75">
+      <c r="A20" s="14">
+        <v>68</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="12.75">
+      <c r="A21" s="14">
+        <v>69</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="H19" s="13" t="s">
+      <c r="G21" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="I21" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="J21" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="J19" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="15">
+    </row>
+    <row r="22" spans="1:10" ht="15">
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="15">
         <v>6</v>
       </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-    </row>
-    <row r="21" spans="1:10" ht="12.75">
-      <c r="A21" s="16" t="s">
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+    </row>
+    <row r="23" spans="1:10" ht="12.75">
+      <c r="A23" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B23" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C23" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D23" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E23" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F23" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H23" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="I23" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="16" t="s">
+      <c r="J23" s="16" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="12.75">
-      <c r="A22" s="17">
-        <v>80</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17">
-        <v>0</v>
-      </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" spans="1:10" ht="12.75">
-      <c r="A23" s="17">
-        <v>81</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17">
-        <v>0</v>
-      </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="12.75">
       <c r="A24" s="17">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D24" s="16"/>
-      <c r="E24" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17">
+        <v>0</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
       <c r="I24" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>143</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" ht="12.75">
       <c r="A25" s="17">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D25" s="16"/>
-      <c r="E25" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>148</v>
-      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17">
+        <v>0</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
       <c r="I25" s="16" t="s">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="13.5" thickBot="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="12.75">
       <c r="A26" s="17">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="12.75">
+      <c r="A27" s="17">
+        <v>83</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="13.5" thickBot="1">
+      <c r="A28" s="17">
+        <v>84</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="G28" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="H28" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="G26" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="H26" s="16" t="s">
+      <c r="I28" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="I26" s="16" t="s">
+      <c r="J28" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="J26" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" thickBot="1">
-      <c r="A27" s="55">
+    </row>
+    <row r="29" spans="1:10" s="3" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A29" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" spans="1:10" s="3" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A30" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+    </row>
+    <row r="31" spans="1:10" thickBot="1">
+      <c r="A31" s="55">
         <v>1024</v>
       </c>
-      <c r="B27" s="55">
+      <c r="B31" s="55">
         <v>128</v>
       </c>
-      <c r="C27" s="55">
+      <c r="C31" s="55">
         <v>3</v>
       </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-    </row>
-    <row r="28" spans="1:10" ht="12.75">
-      <c r="A28" s="18" t="s">
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+    </row>
+    <row r="32" spans="1:10" ht="12.75">
+      <c r="A32" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B32" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C32" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D32" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E32" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F32" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G32" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="18" t="s">
+      <c r="H32" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="I32" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="18" t="s">
+      <c r="J32" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="12.75">
-      <c r="A29" s="19">
+    <row r="33" spans="1:10" ht="12.75">
+      <c r="A33" s="19">
         <v>66</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B33" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="19">
+        <v>0</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+    </row>
+    <row r="34" spans="1:10" ht="12.75">
+      <c r="A34" s="19">
+        <v>67</v>
+      </c>
+      <c r="B34" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19">
+      <c r="C34" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="12.75">
+      <c r="A35" s="19">
+        <v>68</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="12.75">
+      <c r="A36" s="19">
+        <v>69</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15">
+      <c r="A37" s="53"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="20">
+        <v>6</v>
+      </c>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+    </row>
+    <row r="38" spans="1:10" ht="12.75">
+      <c r="A38" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-    </row>
-    <row r="30" spans="1:10" ht="12.75">
-      <c r="A30" s="19">
+      <c r="B38" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="12.75">
+      <c r="A39" s="22">
+        <v>82</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="J39" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="12.75">
+      <c r="A40" s="22">
+        <v>83</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="J40" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="13.5" thickBot="1">
+      <c r="A41" s="22">
+        <v>84</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="3" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A42" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="1:10" s="3" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A43" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="1:10" thickBot="1">
+      <c r="A44" s="56">
+        <v>512</v>
+      </c>
+      <c r="B44" s="56">
+        <v>16</v>
+      </c>
+      <c r="C44" s="56">
+        <v>3</v>
+      </c>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+    </row>
+    <row r="45" spans="1:10" ht="15">
+      <c r="A45" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+    </row>
+    <row r="46" spans="1:10" ht="15">
+      <c r="A46" s="24">
         <v>67</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="18" t="s">
+      <c r="B46" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C46" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="J30" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="12.75">
-      <c r="A31" s="19">
+      <c r="D46" s="23"/>
+      <c r="E46" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="23"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+    </row>
+    <row r="47" spans="1:10" ht="15">
+      <c r="A47" s="24">
         <v>68</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="18" t="s">
+      <c r="B47" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C47" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="J31" s="18" t="s">
+      <c r="D47" s="23"/>
+      <c r="E47" s="23" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="12.75">
-      <c r="A32" s="19">
+      <c r="F47" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H47" s="23"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+    </row>
+    <row r="48" spans="1:10" ht="15">
+      <c r="A48" s="24">
         <v>69</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" s="18" t="s">
+      <c r="B48" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C48" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15">
-      <c r="A33" s="53"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="20">
+      <c r="D48" s="23"/>
+      <c r="E48" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+    </row>
+    <row r="49" spans="1:10" ht="15">
+      <c r="A49" s="53"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="25">
         <v>6</v>
       </c>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-    </row>
-    <row r="34" spans="1:10" ht="12.75">
-      <c r="A34" s="21" t="s">
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+    </row>
+    <row r="50" spans="1:10" ht="12.75">
+      <c r="A50" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B50" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C50" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D50" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E50" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F50" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="21" t="s">
+      <c r="G50" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="21" t="s">
+      <c r="H50" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I34" s="21" t="s">
+      <c r="I50" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J34" s="21" t="s">
+      <c r="J50" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="12.75">
-      <c r="A35" s="22">
+    <row r="51" spans="1:10" ht="12.75">
+      <c r="A51" s="27">
+        <v>80</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="27">
+        <v>0</v>
+      </c>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="12.75">
+      <c r="A52" s="27">
+        <v>81</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="J52" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="12.75">
+      <c r="A53" s="27">
         <v>82</v>
       </c>
-      <c r="B35" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="21" t="s">
+      <c r="B53" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C53" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="J35" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="12.75">
-      <c r="A36" s="22">
+      <c r="D53" s="26"/>
+      <c r="E53" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="G53" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="H53" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I53" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="J53" s="26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="12.75">
+      <c r="A54" s="27">
         <v>83</v>
       </c>
-      <c r="B36" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="21" t="s">
+      <c r="B54" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="C54" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="J36" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A37" s="22">
+      <c r="D54" s="26"/>
+      <c r="E54" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="H54" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I54" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="J54" s="26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="13.5" thickBot="1">
+      <c r="A55" s="27">
         <v>84</v>
       </c>
-      <c r="B37" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="21" t="s">
+      <c r="B55" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="C55" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="I37" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="J37" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" thickBot="1">
-      <c r="A38" s="56">
+      <c r="D55" s="26"/>
+      <c r="E55" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G55" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="H55" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I55" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="J55" s="26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="3" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A56" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+    </row>
+    <row r="57" spans="1:10" s="3" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A57" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+    </row>
+    <row r="58" spans="1:10" thickBot="1">
+      <c r="A58" s="57">
         <v>512</v>
       </c>
-      <c r="B38" s="56">
+      <c r="B58" s="57">
+        <v>64</v>
+      </c>
+      <c r="C58" s="57">
+        <v>3</v>
+      </c>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="53"/>
+    </row>
+    <row r="59" spans="1:10" ht="12.75">
+      <c r="A59" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J59" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="12.75">
+      <c r="A60" s="29">
+        <v>67</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="G60" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J60" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="12.75">
+      <c r="A61" s="29">
+        <v>68</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="J61" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="12.75">
+      <c r="A62" s="29">
+        <v>69</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="56">
-        <v>3</v>
-      </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-    </row>
-    <row r="39" spans="1:10" ht="15">
-      <c r="A39" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-    </row>
-    <row r="40" spans="1:10" ht="15">
-      <c r="A40" s="24">
-        <v>67</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="G40" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="23"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-    </row>
-    <row r="41" spans="1:10" ht="15">
-      <c r="A41" s="24">
-        <v>68</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F41" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="G41" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="H41" s="23"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-    </row>
-    <row r="42" spans="1:10" ht="15">
-      <c r="A42" s="24">
-        <v>69</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="G42" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="H42" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-    </row>
-    <row r="43" spans="1:10" ht="15">
-      <c r="A43" s="53"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="25">
+      <c r="D62" s="28"/>
+      <c r="E62" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="F62" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="H62" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I62" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="J62" s="28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15">
+      <c r="A63" s="53"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="30">
         <v>6</v>
       </c>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-    </row>
-    <row r="44" spans="1:10" ht="12.75">
-      <c r="A44" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I44" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J44" s="26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="12.75">
-      <c r="A45" s="27">
-        <v>80</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="27">
-        <v>0</v>
-      </c>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J45" s="26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="12.75">
-      <c r="A46" s="27">
-        <v>81</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="G46" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="J46" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="12.75">
-      <c r="A47" s="27">
-        <v>82</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="F47" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="G47" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="H47" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="I47" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="J47" s="26" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="12.75">
-      <c r="A48" s="27">
-        <v>83</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="F48" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="G48" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="H48" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="I48" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="J48" s="26" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A49" s="27">
-        <v>84</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="G49" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="H49" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="I49" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="J49" s="26" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" thickBot="1">
-      <c r="A50" s="57">
-        <v>512</v>
-      </c>
-      <c r="B50" s="57">
-        <v>64</v>
-      </c>
-      <c r="C50" s="57">
-        <v>3</v>
-      </c>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-    </row>
-    <row r="51" spans="1:10" ht="12.75">
-      <c r="A51" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G51" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H51" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="I51" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="J51" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="12.75">
-      <c r="A52" s="29">
-        <v>67</v>
-      </c>
-      <c r="B52" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="C52" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="G52" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="J52" s="28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="12.75">
-      <c r="A53" s="29">
-        <v>68</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="C53" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="G53" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="J53" s="28" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="12.75">
-      <c r="A54" s="29">
-        <v>69</v>
-      </c>
-      <c r="B54" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="G54" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="H54" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="I54" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="J54" s="28" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="15">
-      <c r="A55" s="53"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="30">
-        <v>6</v>
-      </c>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-    </row>
-    <row r="56" spans="1:10" ht="12.75">
-      <c r="A56" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G56" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="H56" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="I56" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="J56" s="31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="12.75">
-      <c r="A57" s="32">
-        <v>80</v>
-      </c>
-      <c r="B57" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="C57" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="32">
-        <v>0</v>
-      </c>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" s="31"/>
-    </row>
-    <row r="58" spans="1:10" ht="12.75">
-      <c r="A58" s="32">
-        <v>81</v>
-      </c>
-      <c r="B58" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="C58" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="32">
-        <v>0</v>
-      </c>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="J58" s="31"/>
-    </row>
-    <row r="59" spans="1:10" ht="12.75">
-      <c r="A59" s="32">
-        <v>82</v>
-      </c>
-      <c r="B59" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="F59" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="G59" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="J59" s="31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="12.75">
-      <c r="A60" s="32">
-        <v>83</v>
-      </c>
-      <c r="B60" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="C60" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="F60" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="G60" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="H60" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="I60" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="J60" s="31" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A61" s="32">
-        <v>84</v>
-      </c>
-      <c r="B61" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="C61" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="F61" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="G61" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="H61" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="I61" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="J61" s="31" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" thickBot="1">
-      <c r="A62" s="58">
-        <v>512</v>
-      </c>
-      <c r="B62" s="58">
-        <v>128</v>
-      </c>
-      <c r="C62" s="58">
-        <v>3</v>
-      </c>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="53"/>
-    </row>
-    <row r="63" spans="1:10" ht="15">
-      <c r="A63" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="G63" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H63" s="33" t="s">
-        <v>25</v>
-      </c>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="53"/>
       <c r="I63" s="53"/>
       <c r="J63" s="53"/>
     </row>
-    <row r="64" spans="1:10" ht="15">
-      <c r="A64" s="34">
-        <v>67</v>
-      </c>
-      <c r="B64" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="C64" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="F64" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="G64" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="H64" s="33"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
-    </row>
-    <row r="65" spans="1:10" ht="15">
-      <c r="A65" s="34">
-        <v>68</v>
-      </c>
-      <c r="B65" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="C65" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="F65" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="G65" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="H65" s="33"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-    </row>
-    <row r="66" spans="1:10" ht="15">
-      <c r="A66" s="34">
-        <v>69</v>
-      </c>
-      <c r="B66" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="C66" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="F66" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="G66" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="H66" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="I66" s="53"/>
-      <c r="J66" s="53"/>
-    </row>
-    <row r="67" spans="1:10" ht="15">
-      <c r="A67" s="53"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="35">
-        <v>6</v>
-      </c>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="53"/>
-      <c r="I67" s="53"/>
-      <c r="J67" s="53"/>
-    </row>
-    <row r="68" spans="1:10" ht="12.75">
-      <c r="A68" s="36" t="s">
+    <row r="64" spans="1:10" ht="12.75">
+      <c r="A64" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="36" t="s">
+      <c r="B64" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="36" t="s">
+      <c r="C64" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="36" t="s">
+      <c r="D64" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="36" t="s">
+      <c r="E64" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F68" s="36" t="s">
+      <c r="F64" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G68" s="36" t="s">
+      <c r="G64" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H68" s="36" t="s">
+      <c r="H64" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I68" s="36" t="s">
+      <c r="I64" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="J68" s="36" t="s">
+      <c r="J64" s="31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="12.75">
-      <c r="A69" s="37">
+    <row r="65" spans="1:10" ht="12.75">
+      <c r="A65" s="32">
+        <v>80</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="32">
+        <v>0</v>
+      </c>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="31"/>
+    </row>
+    <row r="66" spans="1:10" ht="12.75">
+      <c r="A66" s="32">
+        <v>81</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="32">
+        <v>0</v>
+      </c>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="J66" s="31"/>
+    </row>
+    <row r="67" spans="1:10" ht="12.75">
+      <c r="A67" s="32">
         <v>82</v>
       </c>
-      <c r="B69" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="C69" s="36" t="s">
+      <c r="B67" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C67" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F69" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="G69" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="J69" s="36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="12.75">
-      <c r="A70" s="37">
+      <c r="D67" s="31"/>
+      <c r="E67" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="F67" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="G67" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="J67" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="13.5" thickBot="1">
+      <c r="A68" s="32">
         <v>83</v>
       </c>
-      <c r="B70" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="C70" s="36" t="s">
+      <c r="B68" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C68" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F70" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="G70" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="H70" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="I70" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="J70" s="36" t="s">
-        <v>208</v>
-      </c>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="F68" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="G68" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="H68" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I68" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="J68" s="31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="3" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A69" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+    </row>
+    <row r="70" spans="1:10" s="3" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A70" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="31"/>
     </row>
     <row r="71" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A71" s="37">
+      <c r="A71" s="32">
         <v>84</v>
       </c>
-      <c r="B71" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="C71" s="36" t="s">
+      <c r="B71" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C71" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="F71" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="G71" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="H71" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="I71" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="J71" s="36" t="s">
-        <v>214</v>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="F71" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="G71" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="H71" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="I71" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="J71" s="31" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:10" thickBot="1">
-      <c r="A72" s="59">
-        <v>256</v>
-      </c>
-      <c r="B72" s="59">
-        <v>16</v>
-      </c>
-      <c r="C72" s="59">
+      <c r="A72" s="58">
+        <v>512</v>
+      </c>
+      <c r="B72" s="58">
+        <v>128</v>
+      </c>
+      <c r="C72" s="58">
         <v>3</v>
       </c>
       <c r="D72" s="53"/>
@@ -4233,128 +4134,112 @@
       <c r="I72" s="53"/>
       <c r="J72" s="53"/>
     </row>
-    <row r="73" spans="1:10" ht="12.75">
-      <c r="A73" s="38" t="s">
+    <row r="73" spans="1:10" ht="15">
+      <c r="A73" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="38" t="s">
+      <c r="B73" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="38" t="s">
+      <c r="C73" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="38" t="s">
+      <c r="D73" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E73" s="38" t="s">
+      <c r="E73" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F73" s="38" t="s">
+      <c r="F73" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G73" s="38" t="s">
+      <c r="G73" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H73" s="38" t="s">
+      <c r="H73" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I73" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="J73" s="38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="12.75">
-      <c r="A74" s="39">
+      <c r="I73" s="53"/>
+      <c r="J73" s="53"/>
+    </row>
+    <row r="74" spans="1:10" ht="15">
+      <c r="A74" s="34">
         <v>67</v>
       </c>
-      <c r="B74" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="C74" s="38" t="s">
+      <c r="B74" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D74" s="38"/>
-      <c r="E74" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="G74" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" s="38"/>
-      <c r="I74" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="J74" s="38" t="s">
+      <c r="D74" s="33"/>
+      <c r="E74" s="33" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="12.75">
-      <c r="A75" s="39">
+      <c r="F74" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="G74" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" s="33"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="53"/>
+    </row>
+    <row r="75" spans="1:10" ht="15">
+      <c r="A75" s="34">
         <v>68</v>
       </c>
-      <c r="B75" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="C75" s="38" t="s">
+      <c r="B75" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C75" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D75" s="38"/>
-      <c r="E75" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="G75" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" s="38"/>
-      <c r="I75" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="J75" s="38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="12.75">
-      <c r="A76" s="39">
+      <c r="D75" s="33"/>
+      <c r="E75" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F75" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="G75" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="H75" s="33"/>
+      <c r="I75" s="53"/>
+      <c r="J75" s="53"/>
+    </row>
+    <row r="76" spans="1:10" ht="15">
+      <c r="A76" s="34">
         <v>69</v>
       </c>
-      <c r="B76" s="38" t="s">
-        <v>260</v>
-      </c>
-      <c r="C76" s="38" t="s">
+      <c r="B76" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="C76" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="F76" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="G76" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="H76" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="I76" s="38" t="s">
-        <v>262</v>
-      </c>
-      <c r="J76" s="38" t="s">
-        <v>263</v>
-      </c>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="F76" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="G76" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="H76" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I76" s="53"/>
+      <c r="J76" s="53"/>
     </row>
     <row r="77" spans="1:10" ht="15">
       <c r="A77" s="53"/>
       <c r="B77" s="53"/>
-      <c r="C77" s="40">
+      <c r="C77" s="35">
         <v>6</v>
       </c>
       <c r="D77" s="53"/>
@@ -4366,183 +4251,161 @@
       <c r="J77" s="53"/>
     </row>
     <row r="78" spans="1:10" ht="12.75">
-      <c r="A78" s="41" t="s">
+      <c r="A78" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="41" t="s">
+      <c r="B78" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="41" t="s">
+      <c r="C78" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="41" t="s">
+      <c r="D78" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E78" s="41" t="s">
+      <c r="E78" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F78" s="41" t="s">
+      <c r="F78" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G78" s="41" t="s">
+      <c r="G78" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="H78" s="41" t="s">
+      <c r="H78" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="I78" s="41" t="s">
+      <c r="I78" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="J78" s="41" t="s">
+      <c r="J78" s="36" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="12.75">
-      <c r="A79" s="42">
-        <v>80</v>
-      </c>
-      <c r="B79" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="C79" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="D79" s="41"/>
-      <c r="E79" s="41"/>
-      <c r="F79" s="42">
-        <v>0</v>
-      </c>
-      <c r="G79" s="41"/>
-      <c r="H79" s="41"/>
-      <c r="I79" s="41"/>
-      <c r="J79" s="41" t="s">
-        <v>12</v>
+      <c r="A79" s="37">
+        <v>82</v>
+      </c>
+      <c r="B79" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="C79" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F79" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="G79" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="J79" s="36" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="12.75">
-      <c r="A80" s="42">
-        <v>81</v>
-      </c>
-      <c r="B80" s="41" t="s">
-        <v>248</v>
-      </c>
-      <c r="C80" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" s="41"/>
-      <c r="E80" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F80" s="41" t="s">
-        <v>249</v>
-      </c>
-      <c r="G80" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="H80" s="41"/>
-      <c r="I80" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="J80" s="41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="12.75">
-      <c r="A81" s="42">
-        <v>82</v>
-      </c>
-      <c r="B81" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="C81" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="41"/>
-      <c r="E81" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="F81" s="42">
-        <v>8</v>
-      </c>
-      <c r="G81" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="H81" s="41"/>
-      <c r="I81" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="J81" s="41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="12.75">
-      <c r="A82" s="42">
+      <c r="A80" s="37">
         <v>83</v>
       </c>
-      <c r="B82" s="41" t="s">
-        <v>251</v>
-      </c>
-      <c r="C82" s="41" t="s">
+      <c r="B80" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C80" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="41"/>
-      <c r="E82" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="F82" s="41" t="s">
-        <v>252</v>
-      </c>
-      <c r="G82" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="H82" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="I82" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="J82" s="41" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A83" s="42">
+      <c r="D80" s="36"/>
+      <c r="E80" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="G80" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H80" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="I80" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="J80" s="36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="13.5" thickBot="1">
+      <c r="A81" s="37">
         <v>84</v>
       </c>
-      <c r="B83" s="41" t="s">
-        <v>254</v>
-      </c>
-      <c r="C83" s="41" t="s">
+      <c r="B81" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="C81" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="41"/>
-      <c r="E83" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="F83" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="G83" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="H83" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="I83" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="J83" s="41" t="s">
+      <c r="D81" s="36"/>
+      <c r="E81" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="F81" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="G81" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="H81" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="I81" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="J81" s="36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="3" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A82" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
+    </row>
+    <row r="83" spans="1:10" s="3" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A83" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+    </row>
+    <row r="84" spans="1:10" thickBot="1">
+      <c r="A84" s="59">
         <v>256</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" thickBot="1">
-      <c r="A84" s="60">
-        <v>256</v>
-      </c>
-      <c r="B84" s="60">
-        <v>64</v>
-      </c>
-      <c r="C84" s="60">
+      <c r="B84" s="59">
+        <v>16</v>
+      </c>
+      <c r="C84" s="59">
         <v>3</v>
       </c>
       <c r="D84" s="53"/>
@@ -4554,125 +4417,127 @@
       <c r="J84" s="53"/>
     </row>
     <row r="85" spans="1:10" ht="12.75">
-      <c r="A85" s="43" t="s">
+      <c r="A85" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="43" t="s">
+      <c r="B85" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="43" t="s">
+      <c r="C85" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D85" s="43" t="s">
+      <c r="D85" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E85" s="43" t="s">
+      <c r="E85" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F85" s="43" t="s">
+      <c r="F85" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G85" s="43" t="s">
+      <c r="G85" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="H85" s="43" t="s">
+      <c r="H85" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="I85" s="43" t="s">
+      <c r="I85" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="J85" s="43" t="s">
+      <c r="J85" s="38" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="12.75">
-      <c r="A86" s="44">
+      <c r="A86" s="39">
         <v>67</v>
       </c>
-      <c r="B86" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="C86" s="43" t="s">
+      <c r="B86" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="C86" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D86" s="43"/>
-      <c r="E86" s="43" t="s">
+      <c r="D86" s="38"/>
+      <c r="E86" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="G86" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="38"/>
+      <c r="I86" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="J86" s="38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="12.75">
+      <c r="A87" s="39">
+        <v>68</v>
+      </c>
+      <c r="B87" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="C87" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D87" s="38"/>
+      <c r="E87" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="G87" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="38"/>
+      <c r="I87" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="F86" s="43" t="s">
-        <v>275</v>
-      </c>
-      <c r="G86" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H86" s="43"/>
-      <c r="I86" s="43"/>
-      <c r="J86" s="43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="12.75">
-      <c r="A87" s="44">
-        <v>68</v>
-      </c>
-      <c r="B87" s="43" t="s">
-        <v>276</v>
-      </c>
-      <c r="C87" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D87" s="43"/>
-      <c r="E87" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F87" s="43" t="s">
-        <v>275</v>
-      </c>
-      <c r="G87" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H87" s="43"/>
-      <c r="I87" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="J87" s="43" t="s">
-        <v>47</v>
+      <c r="J87" s="38" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="12.75">
-      <c r="A88" s="44">
+      <c r="A88" s="39">
         <v>69</v>
       </c>
-      <c r="B88" s="43" t="s">
-        <v>277</v>
-      </c>
-      <c r="C88" s="43" t="s">
+      <c r="B88" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="C88" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="43"/>
-      <c r="E88" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="F88" s="43" t="s">
-        <v>278</v>
-      </c>
-      <c r="G88" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="H88" s="43" t="s">
+      <c r="D88" s="38"/>
+      <c r="E88" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="F88" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="G88" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="H88" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I88" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="J88" s="43" t="s">
-        <v>279</v>
+      <c r="I88" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="J88" s="38" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15">
       <c r="A89" s="53"/>
       <c r="B89" s="53"/>
-      <c r="C89" s="45">
+      <c r="C89" s="40">
         <v>6</v>
       </c>
       <c r="D89" s="53"/>
@@ -4684,230 +4549,212 @@
       <c r="J89" s="53"/>
     </row>
     <row r="90" spans="1:10" ht="12.75">
-      <c r="A90" s="46" t="s">
+      <c r="A90" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="46" t="s">
+      <c r="B90" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="46" t="s">
+      <c r="C90" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D90" s="46" t="s">
+      <c r="D90" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E90" s="46" t="s">
+      <c r="E90" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F90" s="46" t="s">
+      <c r="F90" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G90" s="46" t="s">
+      <c r="G90" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="H90" s="46" t="s">
+      <c r="H90" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="I90" s="46" t="s">
+      <c r="I90" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="J90" s="46" t="s">
+      <c r="J90" s="41" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="12.75">
-      <c r="A91" s="47">
+      <c r="A91" s="42">
+        <v>80</v>
+      </c>
+      <c r="B91" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="C91" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" s="41"/>
+      <c r="E91" s="41"/>
+      <c r="F91" s="42">
+        <v>0</v>
+      </c>
+      <c r="G91" s="41"/>
+      <c r="H91" s="41"/>
+      <c r="I91" s="41"/>
+      <c r="J91" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="12.75">
+      <c r="A92" s="42">
+        <v>81</v>
+      </c>
+      <c r="B92" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="C92" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="41"/>
+      <c r="E92" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F92" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="G92" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H92" s="41"/>
+      <c r="I92" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J92" s="41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="12.75">
+      <c r="A93" s="42">
         <v>82</v>
       </c>
-      <c r="B91" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="C91" s="46" t="s">
+      <c r="B93" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="C93" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D91" s="46"/>
-      <c r="E91" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="F91" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="G91" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="H91" s="46"/>
-      <c r="I91" s="46" t="s">
+      <c r="D93" s="41"/>
+      <c r="E93" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F93" s="42">
+        <v>8</v>
+      </c>
+      <c r="G93" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H93" s="41"/>
+      <c r="I93" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="J93" s="41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="12.75">
+      <c r="A94" s="42">
+        <v>83</v>
+      </c>
+      <c r="B94" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="C94" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="41"/>
+      <c r="E94" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F94" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G94" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H94" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="J91" s="46" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="12.75">
-      <c r="A92" s="47">
-        <v>83</v>
-      </c>
-      <c r="B92" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="C92" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92" s="46"/>
-      <c r="E92" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="F92" s="46" t="s">
-        <v>269</v>
-      </c>
-      <c r="G92" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="H92" s="46"/>
-      <c r="I92" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="J92" s="46" t="s">
+      <c r="I94" s="41" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A93" s="47">
+      <c r="J94" s="41" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="13.5" thickBot="1">
+      <c r="A95" s="42">
         <v>84</v>
       </c>
-      <c r="B93" s="46" t="s">
-        <v>270</v>
-      </c>
-      <c r="C93" s="46" t="s">
+      <c r="B95" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="C95" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D93" s="46"/>
-      <c r="E93" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="F93" s="46" t="s">
-        <v>271</v>
-      </c>
-      <c r="G93" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="H93" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="I93" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="J93" s="46" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" thickBot="1">
-      <c r="A94" s="61">
-        <v>128</v>
-      </c>
-      <c r="B94" s="61">
-        <v>16</v>
-      </c>
-      <c r="C94" s="61">
+      <c r="D95" s="41"/>
+      <c r="E95" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="F95" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="G95" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="H95" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="I95" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="J95" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="3" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A96" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B96" s="41"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="41"/>
+      <c r="J96" s="41"/>
+    </row>
+    <row r="97" spans="1:10" s="3" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A97" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B97" s="41"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="41"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="41"/>
+    </row>
+    <row r="98" spans="1:10" thickBot="1">
+      <c r="A98" s="60">
+        <v>256</v>
+      </c>
+      <c r="B98" s="60">
+        <v>64</v>
+      </c>
+      <c r="C98" s="60">
         <v>3</v>
-      </c>
-      <c r="D94" s="53"/>
-      <c r="E94" s="53"/>
-      <c r="F94" s="53"/>
-      <c r="G94" s="53"/>
-      <c r="H94" s="53"/>
-      <c r="I94" s="53"/>
-      <c r="J94" s="53"/>
-    </row>
-    <row r="95" spans="1:10" ht="12.75">
-      <c r="A95" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="D95" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E95" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="F95" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="G95" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="H95" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="I95" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="J95" s="48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="12.75">
-      <c r="A96" s="49">
-        <v>68</v>
-      </c>
-      <c r="B96" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="C96" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D96" s="48"/>
-      <c r="E96" s="48"/>
-      <c r="F96" s="49">
-        <v>0</v>
-      </c>
-      <c r="G96" s="48"/>
-      <c r="H96" s="48"/>
-      <c r="I96" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="J96" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="12.75">
-      <c r="A97" s="49">
-        <v>69</v>
-      </c>
-      <c r="B97" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C97" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D97" s="48"/>
-      <c r="E97" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F97" s="49">
-        <v>100</v>
-      </c>
-      <c r="G97" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="H97" s="48"/>
-      <c r="I97" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="J97" s="48" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="15">
-      <c r="A98" s="53"/>
-      <c r="B98" s="53"/>
-      <c r="C98" s="45">
-        <v>6</v>
       </c>
       <c r="D98" s="53"/>
       <c r="E98" s="53"/>
@@ -4918,549 +4765,544 @@
       <c r="J98" s="53"/>
     </row>
     <row r="99" spans="1:10" ht="12.75">
-      <c r="A99" s="50" t="s">
+      <c r="A99" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="50" t="s">
+      <c r="B99" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C99" s="50" t="s">
+      <c r="C99" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D99" s="50" t="s">
+      <c r="D99" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E99" s="50" t="s">
+      <c r="E99" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F99" s="50" t="s">
+      <c r="F99" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G99" s="50" t="s">
+      <c r="G99" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="H99" s="50" t="s">
+      <c r="H99" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="I99" s="50" t="s">
+      <c r="I99" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="J99" s="50" t="s">
+      <c r="J99" s="43" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="12.75">
-      <c r="A100" s="51">
+      <c r="A100" s="44">
+        <v>67</v>
+      </c>
+      <c r="B100" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="C100" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D100" s="43"/>
+      <c r="E100" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="G100" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" s="43"/>
+      <c r="I100" s="43"/>
+      <c r="J100" s="43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="12.75">
+      <c r="A101" s="44">
+        <v>68</v>
+      </c>
+      <c r="B101" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="C101" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D101" s="43"/>
+      <c r="E101" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="G101" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" s="43"/>
+      <c r="I101" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="J101" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="12.75">
+      <c r="A102" s="44">
+        <v>69</v>
+      </c>
+      <c r="B102" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="C102" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" s="43"/>
+      <c r="E102" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="F102" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="G102" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="H102" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="I102" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="J102" s="43" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="15">
+      <c r="A103" s="53"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="45">
+        <v>6</v>
+      </c>
+      <c r="D103" s="53"/>
+      <c r="E103" s="53"/>
+      <c r="F103" s="53"/>
+      <c r="G103" s="53"/>
+      <c r="H103" s="53"/>
+      <c r="I103" s="53"/>
+      <c r="J103" s="53"/>
+    </row>
+    <row r="104" spans="1:10" ht="12.75">
+      <c r="A104" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="G104" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H104" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I104" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="J104" s="46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="12.75">
+      <c r="A105" s="47">
         <v>82</v>
       </c>
-      <c r="B100" s="50" t="s">
+      <c r="B105" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="C105" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="46"/>
+      <c r="E105" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="F105" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="G105" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="H105" s="46"/>
+      <c r="I105" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J105" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="13.5" thickBot="1">
+      <c r="A106" s="47">
+        <v>83</v>
+      </c>
+      <c r="B106" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="C106" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="46"/>
+      <c r="E106" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F106" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="G106" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="H106" s="46"/>
+      <c r="I106" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="J106" s="46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="3" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A107" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B107" s="46"/>
+      <c r="C107" s="46"/>
+      <c r="D107" s="46"/>
+      <c r="E107" s="46"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="46"/>
+      <c r="H107" s="46"/>
+      <c r="I107" s="46"/>
+      <c r="J107" s="46"/>
+    </row>
+    <row r="108" spans="1:10" s="3" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A108" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B108" s="46"/>
+      <c r="C108" s="46"/>
+      <c r="D108" s="46"/>
+      <c r="E108" s="46"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="46"/>
+      <c r="H108" s="46"/>
+      <c r="I108" s="46"/>
+      <c r="J108" s="46"/>
+    </row>
+    <row r="109" spans="1:10" ht="13.5" thickBot="1">
+      <c r="A109" s="47">
+        <v>84</v>
+      </c>
+      <c r="B109" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="C109" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" s="46"/>
+      <c r="E109" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="F109" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="G109" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="H109" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="I109" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="J109" s="46" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" thickBot="1">
+      <c r="A110" s="61">
+        <v>128</v>
+      </c>
+      <c r="B110" s="61">
+        <v>16</v>
+      </c>
+      <c r="C110" s="61">
+        <v>3</v>
+      </c>
+      <c r="D110" s="53"/>
+      <c r="E110" s="53"/>
+      <c r="F110" s="53"/>
+      <c r="G110" s="53"/>
+      <c r="H110" s="53"/>
+      <c r="I110" s="53"/>
+      <c r="J110" s="53"/>
+    </row>
+    <row r="111" spans="1:10" ht="12.75">
+      <c r="A111" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G111" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="H111" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="I111" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J111" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="12.75">
+      <c r="A112" s="49">
+        <v>68</v>
+      </c>
+      <c r="B112" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="C112" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D112" s="48"/>
+      <c r="E112" s="48"/>
+      <c r="F112" s="49">
+        <v>0</v>
+      </c>
+      <c r="G112" s="48"/>
+      <c r="H112" s="48"/>
+      <c r="I112" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J112" s="48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="12.75">
+      <c r="A113" s="49">
+        <v>69</v>
+      </c>
+      <c r="B113" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" s="48"/>
+      <c r="E113" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" s="49">
+        <v>100</v>
+      </c>
+      <c r="G113" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="H113" s="48"/>
+      <c r="I113" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="J113" s="48" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="15">
+      <c r="A114" s="53"/>
+      <c r="B114" s="53"/>
+      <c r="C114" s="45">
+        <v>6</v>
+      </c>
+      <c r="D114" s="53"/>
+      <c r="E114" s="53"/>
+      <c r="F114" s="53"/>
+      <c r="G114" s="53"/>
+      <c r="H114" s="53"/>
+      <c r="I114" s="53"/>
+      <c r="J114" s="53"/>
+    </row>
+    <row r="115" spans="1:10" ht="12.75">
+      <c r="A115" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G115" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="H115" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I115" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="J115" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="12.75">
+      <c r="A116" s="51">
+        <v>82</v>
+      </c>
+      <c r="B116" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="C116" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="50"/>
+      <c r="E116" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F116" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="C100" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100" s="50"/>
-      <c r="E100" s="50" t="s">
+      <c r="G116" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="F100" s="50" t="s">
+      <c r="H116" s="50"/>
+      <c r="I116" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="J116" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="12.75">
+      <c r="A117" s="51">
+        <v>83</v>
+      </c>
+      <c r="B117" s="50" t="s">
         <v>282</v>
       </c>
-      <c r="G100" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="H100" s="50"/>
-      <c r="I100" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="J100" s="50" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="12.75">
-      <c r="A101" s="51">
-        <v>83</v>
-      </c>
-      <c r="B101" s="50" t="s">
+      <c r="C117" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" s="50"/>
+      <c r="E117" s="50"/>
+      <c r="F117" s="51">
+        <v>0</v>
+      </c>
+      <c r="G117" s="50"/>
+      <c r="H117" s="50"/>
+      <c r="I117" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="J117" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="12.75">
+      <c r="A118" s="51">
+        <v>84</v>
+      </c>
+      <c r="B118" s="50" t="s">
         <v>283</v>
       </c>
-      <c r="C101" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D101" s="50"/>
-      <c r="E101" s="50"/>
-      <c r="F101" s="51">
-        <v>0</v>
-      </c>
-      <c r="G101" s="50"/>
-      <c r="H101" s="50"/>
-      <c r="I101" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="J101" s="50" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="12.75">
-      <c r="A102" s="51">
-        <v>84</v>
-      </c>
-      <c r="B102" s="50" t="s">
+      <c r="C118" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" s="50"/>
+      <c r="E118" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F118" s="50" t="s">
         <v>284</v>
       </c>
-      <c r="C102" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102" s="50"/>
-      <c r="E102" s="50" t="s">
+      <c r="G118" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F102" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="G102" s="50" t="s">
+      <c r="H118" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I118" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H102" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="I102" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="J102" s="50" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="12.75">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="1">
+      <c r="J118" s="50" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="12.75">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="1">
         <v>69</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D119" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F119" s="3"/>
+      <c r="G119" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F103" s="3"/>
-      <c r="G103" s="2" t="s">
+      <c r="H119" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="H103" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="12.75">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-    </row>
-    <row r="105" spans="1:10" ht="12.75">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-    </row>
-    <row r="106" spans="1:10" ht="12.75">
-      <c r="A106" s="1">
-        <v>256</v>
-      </c>
-      <c r="B106" s="1">
-        <v>256</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D106" s="1">
-        <v>6</v>
-      </c>
-      <c r="E106" s="1">
-        <v>16</v>
-      </c>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-    </row>
-    <row r="107" spans="1:10" ht="12.75">
-      <c r="A107" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="12.75">
-      <c r="A108" s="1">
-        <v>80</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D108" s="3"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="1">
-        <v>0</v>
-      </c>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="12.75">
-      <c r="A109" s="1">
-        <v>81</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D109" s="3"/>
-      <c r="E109" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="12.75">
-      <c r="A110" s="1">
-        <v>82</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D110" s="3"/>
-      <c r="E110" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F110" s="1">
-        <v>8</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="12.75">
-      <c r="A111" s="1">
-        <v>83</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D111" s="3"/>
-      <c r="E111" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="12.75">
-      <c r="A112" s="1">
-        <v>84</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D112" s="3"/>
-      <c r="E112" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="12.75">
-      <c r="A113" s="1">
-        <v>256</v>
-      </c>
-      <c r="B113" s="1">
-        <v>256</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D113" s="1">
-        <v>3</v>
-      </c>
-      <c r="E113" s="1">
-        <v>16</v>
-      </c>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
-    </row>
-    <row r="114" spans="1:10" ht="12.75">
-      <c r="A114" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="12.75">
-      <c r="A115" s="1">
-        <v>67</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D115" s="3"/>
-      <c r="E115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="12.75">
-      <c r="A116" s="1">
-        <v>68</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D116" s="3"/>
-      <c r="E116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="12.75">
-      <c r="A117" s="1">
-        <v>69</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D117" s="3"/>
-      <c r="E117" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="12.75">
-      <c r="A118" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-    </row>
-    <row r="119" spans="1:10" ht="12.75">
-      <c r="A119" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
+      <c r="I119" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="120" spans="1:10" ht="12.75">
-      <c r="A120" s="1">
-        <v>256</v>
-      </c>
-      <c r="B120" s="1">
-        <v>256</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D120" s="1">
-        <v>6</v>
-      </c>
-      <c r="E120" s="1">
-        <v>64</v>
-      </c>
+      <c r="A120" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
@@ -5469,586 +5311,54 @@
     </row>
     <row r="121" spans="1:10" ht="12.75">
       <c r="A121" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="12.75">
-      <c r="A122" s="1">
-        <v>82</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D122" s="3"/>
-      <c r="E122" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="12.75">
-      <c r="A123" s="1">
-        <v>83</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123" s="3"/>
-      <c r="E123" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="12.75">
-      <c r="A124" s="1">
-        <v>84</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D124" s="3"/>
-      <c r="E124" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="12.75">
-      <c r="A125" s="1">
-        <v>256</v>
-      </c>
-      <c r="B125" s="1">
-        <v>256</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D125" s="1">
-        <v>3</v>
-      </c>
-      <c r="E125" s="1">
-        <v>64</v>
-      </c>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
-    </row>
-    <row r="126" spans="1:10" ht="12.75">
-      <c r="A126" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J126" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="12.75">
-      <c r="A127" s="1">
-        <v>67</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D127" s="3"/>
-      <c r="E127" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-      <c r="J127" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="12.75">
-      <c r="A128" s="1">
-        <v>68</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D128" s="3"/>
-      <c r="E128" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="12.75">
-      <c r="A129" s="1">
-        <v>69</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D129" s="3"/>
-      <c r="E129" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J129" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="12.75">
-      <c r="A130" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
-    </row>
-    <row r="131" spans="1:10" ht="12.75">
-      <c r="A131" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
-    </row>
-    <row r="132" spans="1:10" ht="12.75">
-      <c r="A132" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
-    </row>
-    <row r="133" spans="1:10" ht="12.75">
-      <c r="A133" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
-    </row>
-    <row r="134" spans="1:10" ht="12.75">
-      <c r="A134" s="2"/>
-      <c r="B134" s="1">
-        <v>128</v>
-      </c>
-      <c r="C134" s="1">
-        <v>128</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E134" s="1">
-        <v>6</v>
-      </c>
-      <c r="F134" s="1">
-        <v>16</v>
-      </c>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
-    </row>
-    <row r="135" spans="1:10" ht="12.75">
-      <c r="A135" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J135" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="12.75">
-      <c r="A136" s="1">
-        <v>82</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D136" s="3"/>
-      <c r="E136" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J136" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" ht="12.75">
-      <c r="A137" s="1">
-        <v>83</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D137" s="3"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="1">
-        <v>0</v>
-      </c>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
-      <c r="I137" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J137" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" ht="12.75">
-      <c r="A138" s="1">
-        <v>84</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" s="3"/>
-      <c r="E138" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J138" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="12.75">
-      <c r="A139" s="1">
-        <v>128</v>
-      </c>
-      <c r="B139" s="1">
-        <v>128</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D139" s="1">
-        <v>3</v>
-      </c>
-      <c r="E139" s="1">
-        <v>16</v>
-      </c>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
-    </row>
-    <row r="140" spans="1:10" ht="12.75">
-      <c r="A140" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J140" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="12.75">
-      <c r="A141" s="1">
-        <v>68</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D141" s="3"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="1">
-        <v>0</v>
-      </c>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J141" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="12.75">
-      <c r="A142" s="1">
-        <v>69</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D142" s="3"/>
-      <c r="E142" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F142" s="1">
-        <v>100</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H142" s="2"/>
-      <c r="I142" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" ht="12.75">
-      <c r="A143" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="2"/>
-    </row>
-    <row r="144" spans="1:10" ht="12.75">
-      <c r="A144" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="2"/>
-      <c r="J144" s="2"/>
-    </row>
+        <v>201</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+    </row>
+    <row r="122" spans="1:10" ht="12.75"/>
+    <row r="123" spans="1:10" ht="12.75"/>
+    <row r="124" spans="1:10" ht="12.75"/>
+    <row r="125" spans="1:10" ht="12.75"/>
+    <row r="126" spans="1:10" ht="12.75"/>
+    <row r="127" spans="1:10" ht="12.75"/>
+    <row r="128" spans="1:10" ht="12.75"/>
+    <row r="129" ht="12.75"/>
+    <row r="130" ht="12.75"/>
+    <row r="131" ht="12.75"/>
+    <row r="132" ht="12.75"/>
+    <row r="133" ht="12.75"/>
+    <row r="134" ht="12.75"/>
+    <row r="135" ht="12.75"/>
+    <row r="136" ht="12.75"/>
+    <row r="137" ht="12.75"/>
+    <row r="138" ht="12.75"/>
+    <row r="139" ht="12.75"/>
+    <row r="140" ht="12.75"/>
+    <row r="141" ht="12.75"/>
+    <row r="142" ht="12.75"/>
+    <row r="143" ht="12.75"/>
+    <row r="144" ht="12.75"/>
+    <row r="145" ht="12.75"/>
+    <row r="146" ht="12.75"/>
+    <row r="147" ht="12.75"/>
+    <row r="148" ht="12.75"/>
+    <row r="149" ht="12.75"/>
+    <row r="150" ht="12.75"/>
+    <row r="151" ht="12.75"/>
+    <row r="152" ht="12.75"/>
+    <row r="153" ht="12.75"/>
+    <row r="154" ht="12.75"/>
+    <row r="155" ht="12.75"/>
+    <row r="156" ht="12.75"/>
+    <row r="157" ht="12.75"/>
+    <row r="158" ht="12.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6061,8 +5371,8 @@
   </sheetPr>
   <dimension ref="A1:Z604"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C95" sqref="A95:C95"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6154,7 +5464,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>35</v>
@@ -6196,29 +5506,29 @@
         <v>85</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>291</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>292</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -6242,29 +5552,29 @@
         <v>86</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -6366,7 +5676,7 @@
         <v>96</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>28</v>
@@ -6404,7 +5714,7 @@
         <v>97</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>18</v>
@@ -6419,7 +5729,7 @@
         <v>12</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>12</v>
@@ -6446,7 +5756,7 @@
         <v>98</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>11</v>
@@ -6461,10 +5771,10 @@
         <v>12</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -6488,29 +5798,29 @@
         <v>99</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>306</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -6534,29 +5844,29 @@
         <v>100</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>312</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -6580,29 +5890,29 @@
         <v>101</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>314</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -6626,10 +5936,10 @@
         <v>102</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -6666,10 +5976,10 @@
         <v>103</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -6786,7 +6096,7 @@
         <v>84</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>35</v>
@@ -6828,29 +6138,29 @@
         <v>85</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>323</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>324</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -6874,29 +6184,29 @@
         <v>86</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>329</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>330</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -6998,7 +6308,7 @@
         <v>98</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>11</v>
@@ -7011,7 +6321,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>22</v>
@@ -7038,27 +6348,27 @@
         <v>99</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>334</v>
-      </c>
       <c r="G24" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -7082,7 +6392,7 @@
         <v>100</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>14</v>
@@ -7092,19 +6402,19 @@
         <v>42</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>42</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I25" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>337</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>338</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -7128,10 +6438,10 @@
         <v>101</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -7141,10 +6451,10 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -7168,10 +6478,10 @@
         <v>102</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -7288,7 +6598,7 @@
         <v>84</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>35</v>
@@ -7300,7 +6610,7 @@
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>17</v>
@@ -7330,29 +6640,29 @@
         <v>85</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F31" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H31" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>344</v>
-      </c>
       <c r="I31" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -7376,29 +6686,29 @@
         <v>86</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F32" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="H32" s="5" t="s">
+      <c r="I32" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="J32" s="5" t="s">
         <v>348</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>349</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -7500,7 +6810,7 @@
         <v>98</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>11</v>
@@ -7513,7 +6823,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -7538,27 +6848,27 @@
         <v>99</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>353</v>
-      </c>
       <c r="G36" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -7582,29 +6892,29 @@
         <v>100</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F37" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I37" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="I37" s="5" t="s">
+      <c r="J37" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>358</v>
       </c>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
@@ -7628,10 +6938,10 @@
         <v>101</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -7641,10 +6951,10 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -7668,10 +6978,10 @@
         <v>102</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -7790,7 +7100,7 @@
         <v>84</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>35</v>
@@ -7828,23 +7138,23 @@
         <v>85</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>364</v>
-      </c>
       <c r="G43" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>21</v>
@@ -7874,29 +7184,29 @@
         <v>86</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="G44" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="H44" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="G44" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="H44" s="5" t="s">
+      <c r="I44" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J44" s="5" t="s">
         <v>368</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>369</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -7998,7 +7308,7 @@
         <v>98</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>11</v>
@@ -8036,7 +7346,7 @@
         <v>99</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>13</v>
@@ -8046,7 +7356,7 @@
         <v>12</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>12</v>
@@ -8080,7 +7390,7 @@
         <v>100</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>14</v>
@@ -8090,7 +7400,7 @@
         <v>43</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>43</v>
@@ -8126,10 +7436,10 @@
         <v>101</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -8248,7 +7558,7 @@
         <v>84</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>35</v>
@@ -8288,20 +7598,20 @@
         <v>85</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>17</v>
@@ -8310,7 +7620,7 @@
         <v>21</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
@@ -8334,29 +7644,29 @@
         <v>86</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="G55" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="H55" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="G55" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="H55" s="5" t="s">
+      <c r="I55" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="J55" s="5" t="s">
         <v>382</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>383</v>
       </c>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
@@ -8458,7 +7768,7 @@
         <v>99</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>13</v>
@@ -8498,7 +7808,7 @@
         <v>100</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>14</v>
@@ -8520,7 +7830,7 @@
         <v>32</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
@@ -8544,10 +7854,10 @@
         <v>101</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -8584,10 +7894,10 @@
         <v>102</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -8704,7 +8014,7 @@
         <v>84</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>35</v>
@@ -8716,7 +8026,7 @@
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
@@ -8742,20 +8052,20 @@
         <v>85</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F65" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="F65" s="5" t="s">
-        <v>391</v>
-      </c>
       <c r="G65" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H65" s="5"/>
       <c r="I65" s="5" t="s">
@@ -8786,29 +8096,29 @@
         <v>86</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="G66" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="H66" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="G66" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="H66" s="5" t="s">
+      <c r="I66" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="I66" s="5" t="s">
+      <c r="J66" s="5" t="s">
         <v>396</v>
-      </c>
-      <c r="J66" s="5" t="s">
-        <v>397</v>
       </c>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
@@ -8910,10 +8220,10 @@
         <v>95</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -9044,24 +8354,24 @@
         <v>99</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H73" s="5"/>
       <c r="I73" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J73" s="5" t="s">
         <v>23</v>
@@ -9088,7 +8398,7 @@
         <v>100</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>14</v>
@@ -9098,16 +8408,16 @@
         <v>22</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J74" s="5" t="s">
         <v>30</v>
@@ -9134,10 +8444,10 @@
         <v>101</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -9147,10 +8457,10 @@
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
@@ -9256,17 +8566,17 @@
         <v>85</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>20</v>
@@ -9298,24 +8608,24 @@
         <v>86</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="F79" s="5" t="s">
-        <v>408</v>
-      </c>
       <c r="G79" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H79" s="5"/>
       <c r="I79" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J79" s="5" t="s">
         <v>34</v>
@@ -9420,7 +8730,7 @@
         <v>98</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>11</v>
@@ -9460,7 +8770,7 @@
         <v>99</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>13</v>
@@ -9498,7 +8808,7 @@
         <v>100</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>14</v>
@@ -9540,10 +8850,10 @@
         <v>101</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -9662,7 +8972,7 @@
         <v>84</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>35</v>
@@ -9672,7 +8982,7 @@
         <v>12</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>12</v>
@@ -9702,20 +9012,20 @@
         <v>85</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
@@ -9742,24 +9052,24 @@
         <v>86</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F90" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="F90" s="5" t="s">
-        <v>418</v>
-      </c>
       <c r="G90" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H90" s="5"/>
       <c r="I90" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J90" s="5" t="s">
         <v>36</v>
@@ -9864,7 +9174,7 @@
         <v>99</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>13</v>
@@ -9906,7 +9216,7 @@
         <v>100</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>14</v>
@@ -9922,7 +9232,7 @@
         <v>22</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
@@ -10028,7 +9338,7 @@
         <v>86</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>16</v>
@@ -10146,7 +9456,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>11</v>
@@ -10184,7 +9494,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>13</v>
@@ -10197,7 +9507,7 @@
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
@@ -10222,7 +9532,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>14</v>
@@ -24322,7 +23632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z520"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="M40" sqref="J39:M40"/>
     </sheetView>
   </sheetViews>
@@ -24409,7 +23719,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>35</v>
@@ -24419,7 +23729,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>22</v>
@@ -24449,20 +23759,20 @@
         <v>85</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>427</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -24489,20 +23799,20 @@
         <v>86</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="G5" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -24601,17 +23911,17 @@
         <v>95</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>12</v>
@@ -24641,7 +23951,7 @@
         <v>96</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>28</v>
@@ -24651,7 +23961,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>12</v>
@@ -24681,7 +23991,7 @@
         <v>97</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>18</v>
@@ -24691,7 +24001,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>30</v>
@@ -24721,20 +24031,20 @@
         <v>98</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -24761,20 +24071,20 @@
         <v>99</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>440</v>
-      </c>
       <c r="G12" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -24801,20 +24111,20 @@
         <v>100</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>443</v>
-      </c>
       <c r="G13" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -24841,20 +24151,20 @@
         <v>101</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>446</v>
-      </c>
       <c r="G14" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -24881,20 +24191,20 @@
         <v>102</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -24922,7 +24232,7 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -24953,17 +24263,17 @@
         <v>104</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>12</v>
@@ -25069,20 +24379,20 @@
         <v>84</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -25109,20 +24419,20 @@
         <v>85</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>454</v>
-      </c>
       <c r="G21" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -25149,20 +24459,20 @@
         <v>86</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>457</v>
-      </c>
       <c r="G22" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -25261,7 +24571,7 @@
         <v>97</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>18</v>
@@ -25271,7 +24581,7 @@
         <v>17</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>17</v>
@@ -25301,20 +24611,20 @@
         <v>98</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -25341,20 +24651,20 @@
         <v>99</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>464</v>
-      </c>
       <c r="G27" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -25381,20 +24691,20 @@
         <v>100</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>467</v>
-      </c>
       <c r="G28" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -25421,20 +24731,20 @@
         <v>101</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>470</v>
-      </c>
       <c r="G29" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -25461,17 +24771,17 @@
         <v>102</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>21</v>
@@ -25577,7 +24887,7 @@
         <v>84</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>35</v>
@@ -25587,7 +24897,7 @@
         <v>22</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>22</v>
@@ -25617,20 +24927,20 @@
         <v>85</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>477</v>
-      </c>
       <c r="G34" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -25657,20 +24967,20 @@
         <v>86</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>480</v>
-      </c>
       <c r="G35" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -25769,20 +25079,20 @@
         <v>98</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -25809,20 +25119,20 @@
         <v>99</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>485</v>
-      </c>
       <c r="G39" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -25849,20 +25159,20 @@
         <v>100</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>488</v>
-      </c>
       <c r="G40" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -25889,20 +25199,20 @@
         <v>101</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>491</v>
-      </c>
       <c r="G41" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -25929,17 +25239,17 @@
         <v>102</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>21</v>
@@ -26045,7 +25355,7 @@
         <v>84</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>35</v>
@@ -26055,7 +25365,7 @@
         <v>17</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>17</v>
@@ -26085,17 +25395,17 @@
         <v>85</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>41</v>
@@ -26125,20 +25435,20 @@
         <v>86</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>500</v>
-      </c>
       <c r="G47" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -26237,7 +25547,7 @@
         <v>97</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>18</v>
@@ -26247,7 +25557,7 @@
         <v>43</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>43</v>
@@ -26277,20 +25587,20 @@
         <v>98</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
@@ -26317,20 +25627,20 @@
         <v>99</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
@@ -26357,20 +25667,20 @@
         <v>100</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="F53" s="5" t="s">
-        <v>509</v>
-      </c>
       <c r="G53" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
@@ -26397,20 +25707,20 @@
         <v>101</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F54" s="7">
         <v>43232</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
@@ -26437,17 +25747,17 @@
         <v>102</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>21</v>
@@ -26553,7 +25863,7 @@
         <v>84</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>35</v>
@@ -26563,7 +25873,7 @@
         <v>17</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>17</v>
@@ -26593,20 +25903,20 @@
         <v>85</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
@@ -26633,20 +25943,20 @@
         <v>86</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="F60" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="F60" s="5" t="s">
-        <v>520</v>
-      </c>
       <c r="G60" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
@@ -26745,7 +26055,7 @@
         <v>98</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>11</v>
@@ -26755,7 +26065,7 @@
         <v>36</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>36</v>
@@ -26785,20 +26095,20 @@
         <v>99</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
@@ -26825,20 +26135,20 @@
         <v>100</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="F65" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="F65" s="5" t="s">
-        <v>527</v>
-      </c>
       <c r="G65" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
@@ -26865,20 +26175,20 @@
         <v>101</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>530</v>
-      </c>
       <c r="G66" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
@@ -26905,17 +26215,17 @@
         <v>102</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>12</v>
@@ -27021,20 +26331,20 @@
         <v>85</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="F70" s="5" t="s">
-        <v>535</v>
-      </c>
       <c r="G70" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
@@ -27061,20 +26371,20 @@
         <v>86</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>538</v>
-      </c>
       <c r="G71" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
@@ -27173,20 +26483,20 @@
         <v>98</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
@@ -27213,20 +26523,20 @@
         <v>99</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
@@ -27253,20 +26563,20 @@
         <v>100</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="F76" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>545</v>
-      </c>
       <c r="G76" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
@@ -27293,20 +26603,20 @@
         <v>101</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="F77" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="F77" s="5" t="s">
-        <v>548</v>
-      </c>
       <c r="G77" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
@@ -27409,17 +26719,17 @@
         <v>85</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>23</v>
@@ -27449,20 +26759,20 @@
         <v>86</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
@@ -27561,7 +26871,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>18</v>
@@ -27571,7 +26881,7 @@
         <v>12</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>12</v>
@@ -27601,20 +26911,20 @@
         <v>98</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
@@ -27641,7 +26951,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>13</v>
@@ -27651,7 +26961,7 @@
         <v>32</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>32</v>
@@ -27681,20 +26991,20 @@
         <v>100</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
@@ -27721,17 +27031,17 @@
         <v>101</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>36</v>
@@ -27761,17 +27071,17 @@
         <v>102</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>12</v>
@@ -27877,7 +27187,7 @@
         <v>84</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>35</v>
@@ -27887,7 +27197,7 @@
         <v>21</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>21</v>
@@ -27917,17 +27227,17 @@
         <v>85</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>22</v>
@@ -27957,20 +27267,20 @@
         <v>86</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
@@ -28069,20 +27379,20 @@
         <v>99</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
@@ -28109,20 +27419,20 @@
         <v>100</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="F98" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="F98" s="5" t="s">
-        <v>573</v>
-      </c>
       <c r="G98" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
@@ -28149,17 +27459,17 @@
         <v>101</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>36</v>
@@ -28265,10 +27575,10 @@
         <v>85</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5" t="s">
@@ -28305,20 +27615,20 @@
         <v>86</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
@@ -28417,7 +27727,7 @@
         <v>98</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>11</v>
@@ -28457,7 +27767,7 @@
         <v>99</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>13</v>
@@ -28497,20 +27807,20 @@
         <v>100</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F108" s="4">
         <v>50</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
@@ -28537,10 +27847,10 @@
         <v>101</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5" t="s">

--- a/Parallel.xlsx
+++ b/Parallel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="570" windowWidth="28455" windowHeight="11955"/>
+    <workbookView xWindow="240" yWindow="570" windowWidth="28455" windowHeight="11955" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="589">
   <si>
     <t>Line</t>
   </si>
@@ -1780,6 +1780,9 @@
   </si>
   <si>
     <t>IJK-IKJ | 0.0620</t>
+  </si>
+  <si>
+    <t>12.5</t>
   </si>
 </sst>
 </file>
@@ -1879,7 +1882,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1890,9 +1893,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2016,6 +2016,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="37">
@@ -2352,7 +2358,7 @@
   </sheetPr>
   <dimension ref="A1:J157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
@@ -2362,380 +2368,380 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" thickBot="1">
-      <c r="A1" s="51">
+      <c r="A1" s="50">
         <v>1024</v>
       </c>
-      <c r="B1" s="51">
+      <c r="B1" s="50">
         <v>16</v>
       </c>
-      <c r="C1" s="51">
+      <c r="C1" s="50">
         <v>3</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>66</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7">
         <v>0</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12.75">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>67</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.75">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>68</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="12.75">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>69</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="9">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="8">
         <v>6</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
     </row>
     <row r="8" spans="1:10" ht="12.75">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12.75">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>79</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="12.75">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>80</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="12.75">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>81</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="12.75">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>82</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="12.75">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>83</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>84</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2743,345 +2749,345 @@
       <c r="A15" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" s="2" customFormat="1" ht="13.5" thickBot="1">
       <c r="A16" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" thickBot="1">
-      <c r="A17" s="53">
+      <c r="A17" s="52">
         <v>1024</v>
       </c>
-      <c r="B17" s="53">
+      <c r="B17" s="52">
         <v>64</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="52">
         <v>3</v>
       </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
     </row>
     <row r="18" spans="1:10" ht="12.75">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="12.75">
-      <c r="A19" s="13">
+      <c r="A19" s="12">
         <v>67</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12" t="s">
+      <c r="H19" s="11"/>
+      <c r="I19" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="11" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="12.75">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>68</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12" t="s">
+      <c r="H20" s="11"/>
+      <c r="I20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="11" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="12.75">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <v>69</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12" t="s">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="11" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="14">
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="13">
         <v>6</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
     </row>
     <row r="23" spans="1:10" ht="12.75">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="12.75">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <v>80</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16">
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15">
         <v>0</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15" t="s">
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="15"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10" ht="12.75">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <v>81</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16">
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15">
         <v>0</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15" t="s">
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="J25" s="14" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="12.75">
-      <c r="A26" s="16">
+      <c r="A26" s="15">
         <v>82</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="J26" s="14" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="12.75">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <v>83</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="J27" s="15" t="s">
+      <c r="J27" s="14" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <v>84</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="J28" s="14" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3089,321 +3095,321 @@
       <c r="A29" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" s="2" customFormat="1" ht="13.5" thickBot="1">
       <c r="A30" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10" thickBot="1">
-      <c r="A31" s="54">
+      <c r="A31" s="53">
         <v>1024</v>
       </c>
-      <c r="B31" s="54">
+      <c r="B31" s="53">
         <v>128</v>
       </c>
-      <c r="C31" s="54">
+      <c r="C31" s="53">
         <v>3</v>
       </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
     </row>
     <row r="32" spans="1:10" ht="12.75">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I32" s="17" t="s">
+      <c r="I32" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J32" s="17" t="s">
+      <c r="J32" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="12.75">
-      <c r="A33" s="18">
+      <c r="A33" s="17">
         <v>66</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="18">
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="17">
         <v>0</v>
       </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17" t="s">
+      <c r="G33" s="16"/>
+      <c r="H33" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
     </row>
     <row r="34" spans="1:10" ht="12.75">
-      <c r="A34" s="18">
+      <c r="A34" s="17">
         <v>67</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17" t="s">
+      <c r="D34" s="16"/>
+      <c r="E34" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G34" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17" t="s">
+      <c r="H34" s="16"/>
+      <c r="I34" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="J34" s="17" t="s">
+      <c r="J34" s="16" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="12.75">
-      <c r="A35" s="18">
+      <c r="A35" s="17">
         <v>68</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17" t="s">
+      <c r="D35" s="16"/>
+      <c r="E35" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G35" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17" t="s">
+      <c r="H35" s="16"/>
+      <c r="I35" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="J35" s="17" t="s">
+      <c r="J35" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="12.75">
-      <c r="A36" s="18">
+      <c r="A36" s="17">
         <v>69</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17" t="s">
+      <c r="D36" s="16"/>
+      <c r="E36" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G36" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="H36" s="17" t="s">
+      <c r="H36" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="I36" s="17" t="s">
+      <c r="I36" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="J36" s="17" t="s">
+      <c r="J36" s="16" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15">
-      <c r="A37" s="52"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="19">
+      <c r="A37" s="51"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="18">
         <v>6</v>
       </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
     </row>
     <row r="38" spans="1:10" ht="12.75">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="20" t="s">
+      <c r="G38" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="20" t="s">
+      <c r="H38" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I38" s="20" t="s">
+      <c r="I38" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J38" s="20" t="s">
+      <c r="J38" s="19" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="12.75">
-      <c r="A39" s="21">
+      <c r="A39" s="20">
         <v>82</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20" t="s">
+      <c r="D39" s="19"/>
+      <c r="E39" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H39" s="20" t="s">
+      <c r="H39" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="20" t="s">
+      <c r="I39" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="J39" s="20" t="s">
+      <c r="J39" s="19" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="12.75">
-      <c r="A40" s="21">
+      <c r="A40" s="20">
         <v>83</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20" t="s">
+      <c r="D40" s="19"/>
+      <c r="E40" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="F40" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="G40" s="20" t="s">
+      <c r="G40" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H40" s="20" t="s">
+      <c r="H40" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="I40" s="20" t="s">
+      <c r="I40" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="J40" s="20" t="s">
+      <c r="J40" s="19" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A41" s="21">
+      <c r="A41" s="20">
         <v>84</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20" t="s">
+      <c r="D41" s="19"/>
+      <c r="E41" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="H41" s="20" t="s">
+      <c r="H41" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="I41" s="20" t="s">
+      <c r="I41" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="J41" s="20" t="s">
+      <c r="J41" s="19" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3411,335 +3417,335 @@
       <c r="A42" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
     </row>
     <row r="43" spans="1:10" s="2" customFormat="1" ht="13.5" thickBot="1">
       <c r="A43" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
     </row>
     <row r="44" spans="1:10" thickBot="1">
-      <c r="A44" s="55">
+      <c r="A44" s="54">
         <v>512</v>
       </c>
-      <c r="B44" s="55">
+      <c r="B44" s="54">
         <v>16</v>
       </c>
-      <c r="C44" s="55">
+      <c r="C44" s="54">
         <v>3</v>
       </c>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
     </row>
     <row r="45" spans="1:10" ht="15">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="22" t="s">
+      <c r="F45" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G45" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="22" t="s">
+      <c r="H45" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
     </row>
     <row r="46" spans="1:10" ht="15">
-      <c r="A46" s="23">
+      <c r="A46" s="22">
         <v>67</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22" t="s">
+      <c r="D46" s="21"/>
+      <c r="E46" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="22" t="s">
+      <c r="F46" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="G46" s="22" t="s">
+      <c r="G46" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H46" s="22"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
     </row>
     <row r="47" spans="1:10" ht="15">
-      <c r="A47" s="23">
+      <c r="A47" s="22">
         <v>68</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22" t="s">
+      <c r="D47" s="21"/>
+      <c r="E47" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G47" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="H47" s="22"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
     </row>
     <row r="48" spans="1:10" ht="15">
-      <c r="A48" s="23">
+      <c r="A48" s="22">
         <v>69</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22" t="s">
+      <c r="D48" s="21"/>
+      <c r="E48" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="F48" s="22" t="s">
+      <c r="F48" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="G48" s="22" t="s">
+      <c r="G48" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="H48" s="22" t="s">
+      <c r="H48" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
     </row>
     <row r="49" spans="1:10" ht="15">
-      <c r="A49" s="52"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="24">
+      <c r="A49" s="51"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="23">
         <v>6</v>
       </c>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="52"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
     </row>
     <row r="50" spans="1:10" ht="12.75">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="25" t="s">
+      <c r="E50" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F50" s="25" t="s">
+      <c r="F50" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G50" s="25" t="s">
+      <c r="G50" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="25" t="s">
+      <c r="H50" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="I50" s="25" t="s">
+      <c r="I50" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J50" s="25" t="s">
+      <c r="J50" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="12.75">
-      <c r="A51" s="26">
+      <c r="A51" s="25">
         <v>80</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="26">
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="25">
         <v>0</v>
       </c>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25" t="s">
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J51" s="25" t="s">
+      <c r="J51" s="24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="12.75">
-      <c r="A52" s="26">
+      <c r="A52" s="25">
         <v>81</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25" t="s">
+      <c r="D52" s="24"/>
+      <c r="E52" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F52" s="25" t="s">
+      <c r="F52" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="G52" s="25" t="s">
+      <c r="G52" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25" t="s">
+      <c r="H52" s="24"/>
+      <c r="I52" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="J52" s="25" t="s">
+      <c r="J52" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="12.75">
-      <c r="A53" s="26">
+      <c r="A53" s="25">
         <v>82</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25" t="s">
+      <c r="D53" s="24"/>
+      <c r="E53" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="F53" s="25" t="s">
+      <c r="F53" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="G53" s="25" t="s">
+      <c r="G53" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="H53" s="25" t="s">
+      <c r="H53" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I53" s="25" t="s">
+      <c r="I53" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="J53" s="25" t="s">
+      <c r="J53" s="24" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="12.75">
-      <c r="A54" s="26">
+      <c r="A54" s="25">
         <v>83</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25" t="s">
+      <c r="D54" s="24"/>
+      <c r="E54" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="F54" s="25" t="s">
+      <c r="F54" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="G54" s="25" t="s">
+      <c r="G54" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="H54" s="25" t="s">
+      <c r="H54" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I54" s="25" t="s">
+      <c r="I54" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="J54" s="25" t="s">
+      <c r="J54" s="24" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A55" s="26">
+      <c r="A55" s="25">
         <v>84</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25" t="s">
+      <c r="D55" s="24"/>
+      <c r="E55" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="F55" s="25" t="s">
+      <c r="F55" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="G55" s="25" t="s">
+      <c r="G55" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="H55" s="25" t="s">
+      <c r="H55" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="I55" s="25" t="s">
+      <c r="I55" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="J55" s="25" t="s">
+      <c r="J55" s="24" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3747,341 +3753,341 @@
       <c r="A56" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
     </row>
     <row r="57" spans="1:10" s="2" customFormat="1" ht="13.5" thickBot="1">
       <c r="A57" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
     </row>
     <row r="58" spans="1:10" thickBot="1">
-      <c r="A58" s="56">
+      <c r="A58" s="55">
         <v>512</v>
       </c>
-      <c r="B58" s="56">
+      <c r="B58" s="55">
         <v>64</v>
       </c>
-      <c r="C58" s="56">
+      <c r="C58" s="55">
         <v>3</v>
       </c>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
     </row>
     <row r="59" spans="1:10" ht="12.75">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="27" t="s">
+      <c r="D59" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E59" s="27" t="s">
+      <c r="E59" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F59" s="27" t="s">
+      <c r="F59" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="27" t="s">
+      <c r="G59" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H59" s="27" t="s">
+      <c r="H59" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I59" s="27" t="s">
+      <c r="I59" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J59" s="27" t="s">
+      <c r="J59" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="12.75">
-      <c r="A60" s="28">
+      <c r="A60" s="27">
         <v>67</v>
       </c>
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27" t="s">
+      <c r="D60" s="26"/>
+      <c r="E60" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F60" s="27" t="s">
+      <c r="F60" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="G60" s="27" t="s">
+      <c r="G60" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27" t="s">
+      <c r="H60" s="26"/>
+      <c r="I60" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J60" s="27" t="s">
+      <c r="J60" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="12.75">
-      <c r="A61" s="28">
+      <c r="A61" s="27">
         <v>68</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27" t="s">
+      <c r="D61" s="26"/>
+      <c r="E61" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F61" s="27" t="s">
+      <c r="F61" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="G61" s="27" t="s">
+      <c r="G61" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27" t="s">
+      <c r="H61" s="26"/>
+      <c r="I61" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="J61" s="27" t="s">
+      <c r="J61" s="26" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="12.75">
-      <c r="A62" s="28">
+      <c r="A62" s="27">
         <v>69</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27" t="s">
+      <c r="D62" s="26"/>
+      <c r="E62" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="F62" s="27" t="s">
+      <c r="F62" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="G62" s="27" t="s">
+      <c r="G62" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="H62" s="27" t="s">
+      <c r="H62" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="I62" s="27" t="s">
+      <c r="I62" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="J62" s="27" t="s">
+      <c r="J62" s="26" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15">
-      <c r="A63" s="52"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="29">
+      <c r="A63" s="51"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="28">
         <v>6</v>
       </c>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="52"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="51"/>
     </row>
     <row r="64" spans="1:10" ht="12.75">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="30" t="s">
+      <c r="E64" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F64" s="30" t="s">
+      <c r="F64" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G64" s="30" t="s">
+      <c r="G64" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H64" s="30" t="s">
+      <c r="H64" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I64" s="30" t="s">
+      <c r="I64" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="J64" s="30" t="s">
+      <c r="J64" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="12.75">
-      <c r="A65" s="31">
+      <c r="A65" s="30">
         <v>80</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="31">
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="30">
         <v>0</v>
       </c>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30" t="s">
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J65" s="30"/>
+      <c r="J65" s="29"/>
     </row>
     <row r="66" spans="1:10" ht="12.75">
-      <c r="A66" s="31">
+      <c r="A66" s="30">
         <v>81</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="C66" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="31">
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="30">
         <v>0</v>
       </c>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30" t="s">
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="J66" s="30"/>
+      <c r="J66" s="29"/>
     </row>
     <row r="67" spans="1:10" ht="12.75">
-      <c r="A67" s="31">
+      <c r="A67" s="30">
         <v>82</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C67" s="30" t="s">
+      <c r="C67" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30" t="s">
+      <c r="D67" s="29"/>
+      <c r="E67" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="F67" s="30" t="s">
+      <c r="F67" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="G67" s="30" t="s">
+      <c r="G67" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30" t="s">
+      <c r="H67" s="29"/>
+      <c r="I67" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="J67" s="30" t="s">
+      <c r="J67" s="29" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="12.75">
-      <c r="A68" s="31">
+      <c r="A68" s="30">
         <v>83</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="C68" s="30" t="s">
+      <c r="C68" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30" t="s">
+      <c r="D68" s="29"/>
+      <c r="E68" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="F68" s="30" t="s">
+      <c r="F68" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="G68" s="30" t="s">
+      <c r="G68" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="H68" s="30" t="s">
+      <c r="H68" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="I68" s="30" t="s">
+      <c r="I68" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="J68" s="30" t="s">
+      <c r="J68" s="29" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="2" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A69" s="31">
+      <c r="A69" s="30">
         <v>84</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="C69" s="30" t="s">
+      <c r="C69" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30" t="s">
+      <c r="D69" s="29"/>
+      <c r="E69" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="F69" s="30" t="s">
+      <c r="F69" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="G69" s="30" t="s">
+      <c r="G69" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="H69" s="30" t="s">
+      <c r="H69" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="I69" s="30" t="s">
+      <c r="I69" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="J69" s="30" t="s">
+      <c r="J69" s="29" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4089,15 +4095,15 @@
       <c r="A70" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="30"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
     </row>
     <row r="71" spans="1:10" ht="13.5" thickBot="1">
       <c r="A71" s="4" t="s">
@@ -4105,256 +4111,256 @@
       </c>
     </row>
     <row r="72" spans="1:10" thickBot="1">
-      <c r="A72" s="57">
+      <c r="A72" s="56">
         <v>512</v>
       </c>
-      <c r="B72" s="57">
+      <c r="B72" s="56">
         <v>128</v>
       </c>
-      <c r="C72" s="57">
+      <c r="C72" s="56">
         <v>3</v>
       </c>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="52"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="51"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="51"/>
+      <c r="J72" s="51"/>
     </row>
     <row r="73" spans="1:10" ht="15">
-      <c r="A73" s="32" t="s">
+      <c r="A73" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="32" t="s">
+      <c r="B73" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="32" t="s">
+      <c r="C73" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="32" t="s">
+      <c r="D73" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E73" s="32" t="s">
+      <c r="E73" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F73" s="32" t="s">
+      <c r="F73" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G73" s="32" t="s">
+      <c r="G73" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H73" s="32" t="s">
+      <c r="H73" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I73" s="52"/>
-      <c r="J73" s="52"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
     </row>
     <row r="74" spans="1:10" ht="15">
-      <c r="A74" s="33">
+      <c r="A74" s="32">
         <v>67</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="C74" s="32" t="s">
+      <c r="C74" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32" t="s">
+      <c r="D74" s="31"/>
+      <c r="E74" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F74" s="32" t="s">
+      <c r="F74" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="G74" s="32" t="s">
+      <c r="G74" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H74" s="32"/>
-      <c r="I74" s="52"/>
-      <c r="J74" s="52"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="51"/>
     </row>
     <row r="75" spans="1:10" ht="15">
-      <c r="A75" s="33">
+      <c r="A75" s="32">
         <v>68</v>
       </c>
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="C75" s="32" t="s">
+      <c r="C75" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32" t="s">
+      <c r="D75" s="31"/>
+      <c r="E75" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="F75" s="32" t="s">
+      <c r="F75" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="G75" s="32" t="s">
+      <c r="G75" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="H75" s="32"/>
-      <c r="I75" s="52"/>
-      <c r="J75" s="52"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="51"/>
     </row>
     <row r="76" spans="1:10" ht="15">
-      <c r="A76" s="33">
+      <c r="A76" s="32">
         <v>69</v>
       </c>
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="C76" s="32" t="s">
+      <c r="C76" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D76" s="32"/>
-      <c r="E76" s="32" t="s">
+      <c r="D76" s="31"/>
+      <c r="E76" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="F76" s="32" t="s">
+      <c r="F76" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="G76" s="32" t="s">
+      <c r="G76" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="H76" s="32" t="s">
+      <c r="H76" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I76" s="52"/>
-      <c r="J76" s="52"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
     </row>
     <row r="77" spans="1:10" ht="15">
-      <c r="A77" s="52"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="34">
+      <c r="A77" s="51"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="33">
         <v>6</v>
       </c>
-      <c r="D77" s="52"/>
-      <c r="E77" s="52"/>
-      <c r="F77" s="52"/>
-      <c r="G77" s="52"/>
-      <c r="H77" s="52"/>
-      <c r="I77" s="52"/>
-      <c r="J77" s="52"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="51"/>
+      <c r="J77" s="51"/>
     </row>
     <row r="78" spans="1:10" ht="12.75">
-      <c r="A78" s="35" t="s">
+      <c r="A78" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="35" t="s">
+      <c r="B78" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="35" t="s">
+      <c r="C78" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="35" t="s">
+      <c r="D78" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E78" s="35" t="s">
+      <c r="E78" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F78" s="35" t="s">
+      <c r="F78" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G78" s="35" t="s">
+      <c r="G78" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H78" s="35" t="s">
+      <c r="H78" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I78" s="35" t="s">
+      <c r="I78" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="J78" s="35" t="s">
+      <c r="J78" s="34" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="12.75">
-      <c r="A79" s="36">
+      <c r="A79" s="35">
         <v>82</v>
       </c>
-      <c r="B79" s="35" t="s">
+      <c r="B79" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="C79" s="35" t="s">
+      <c r="C79" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35" t="s">
+      <c r="D79" s="34"/>
+      <c r="E79" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="F79" s="35" t="s">
+      <c r="F79" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="G79" s="35" t="s">
+      <c r="G79" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="H79" s="35"/>
-      <c r="I79" s="35" t="s">
+      <c r="H79" s="34"/>
+      <c r="I79" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="J79" s="35" t="s">
+      <c r="J79" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="12.75">
-      <c r="A80" s="36">
+      <c r="A80" s="35">
         <v>83</v>
       </c>
-      <c r="B80" s="35" t="s">
+      <c r="B80" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="C80" s="35" t="s">
+      <c r="C80" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35" t="s">
+      <c r="D80" s="34"/>
+      <c r="E80" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F80" s="35" t="s">
+      <c r="F80" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="G80" s="35" t="s">
+      <c r="G80" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H80" s="35" t="s">
+      <c r="H80" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="I80" s="35" t="s">
+      <c r="I80" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="J80" s="35" t="s">
+      <c r="J80" s="34" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A81" s="36">
+      <c r="A81" s="35">
         <v>84</v>
       </c>
-      <c r="B81" s="35" t="s">
+      <c r="B81" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="C81" s="35" t="s">
+      <c r="C81" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="35"/>
-      <c r="E81" s="35" t="s">
+      <c r="D81" s="34"/>
+      <c r="E81" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="F81" s="35" t="s">
+      <c r="F81" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="G81" s="35" t="s">
+      <c r="G81" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="H81" s="35" t="s">
+      <c r="H81" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="I81" s="35" t="s">
+      <c r="I81" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="J81" s="35" t="s">
+      <c r="J81" s="34" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4362,347 +4368,347 @@
       <c r="A82" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B82" s="35"/>
-      <c r="C82" s="35"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="35"/>
-      <c r="I82" s="35"/>
-      <c r="J82" s="35"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="34"/>
     </row>
     <row r="83" spans="1:10" s="2" customFormat="1" ht="13.5" thickBot="1">
       <c r="A83" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="B83" s="35"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="35"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="34"/>
+      <c r="J83" s="34"/>
     </row>
     <row r="84" spans="1:10" thickBot="1">
-      <c r="A84" s="58">
+      <c r="A84" s="57">
         <v>256</v>
       </c>
-      <c r="B84" s="58">
+      <c r="B84" s="57">
         <v>16</v>
       </c>
-      <c r="C84" s="58">
+      <c r="C84" s="57">
         <v>3</v>
       </c>
-      <c r="D84" s="52"/>
-      <c r="E84" s="52"/>
-      <c r="F84" s="52"/>
-      <c r="G84" s="52"/>
-      <c r="H84" s="52"/>
-      <c r="I84" s="52"/>
-      <c r="J84" s="52"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="51"/>
+      <c r="J84" s="51"/>
     </row>
     <row r="85" spans="1:10" ht="12.75">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="37" t="s">
+      <c r="B85" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="37" t="s">
+      <c r="C85" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D85" s="37" t="s">
+      <c r="D85" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E85" s="37" t="s">
+      <c r="E85" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F85" s="37" t="s">
+      <c r="F85" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G85" s="37" t="s">
+      <c r="G85" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="H85" s="37" t="s">
+      <c r="H85" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="I85" s="37" t="s">
+      <c r="I85" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="J85" s="37" t="s">
+      <c r="J85" s="36" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="12.75">
-      <c r="A86" s="38">
+      <c r="A86" s="37">
         <v>67</v>
       </c>
-      <c r="B86" s="37" t="s">
+      <c r="B86" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="C86" s="37" t="s">
+      <c r="C86" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D86" s="37"/>
-      <c r="E86" s="37" t="s">
+      <c r="D86" s="36"/>
+      <c r="E86" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="F86" s="37" t="s">
+      <c r="F86" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="G86" s="37" t="s">
+      <c r="G86" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37" t="s">
+      <c r="H86" s="36"/>
+      <c r="I86" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="J86" s="37" t="s">
+      <c r="J86" s="36" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="12.75">
-      <c r="A87" s="38">
+      <c r="A87" s="37">
         <v>68</v>
       </c>
-      <c r="B87" s="37" t="s">
+      <c r="B87" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="C87" s="37" t="s">
+      <c r="C87" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37" t="s">
+      <c r="D87" s="36"/>
+      <c r="E87" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="F87" s="37" t="s">
+      <c r="F87" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="G87" s="37" t="s">
+      <c r="G87" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H87" s="37"/>
-      <c r="I87" s="37" t="s">
+      <c r="H87" s="36"/>
+      <c r="I87" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="J87" s="37" t="s">
+      <c r="J87" s="36" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="12.75">
-      <c r="A88" s="38">
+      <c r="A88" s="37">
         <v>69</v>
       </c>
-      <c r="B88" s="37" t="s">
+      <c r="B88" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="C88" s="37" t="s">
+      <c r="C88" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37" t="s">
+      <c r="D88" s="36"/>
+      <c r="E88" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="F88" s="37" t="s">
+      <c r="F88" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="G88" s="37" t="s">
+      <c r="G88" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="H88" s="37" t="s">
+      <c r="H88" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I88" s="37" t="s">
+      <c r="I88" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="J88" s="37" t="s">
+      <c r="J88" s="36" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15">
-      <c r="A89" s="52"/>
-      <c r="B89" s="52"/>
-      <c r="C89" s="39">
+      <c r="A89" s="51"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="38">
         <v>6</v>
       </c>
-      <c r="D89" s="52"/>
-      <c r="E89" s="52"/>
-      <c r="F89" s="52"/>
-      <c r="G89" s="52"/>
-      <c r="H89" s="52"/>
-      <c r="I89" s="52"/>
-      <c r="J89" s="52"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="51"/>
+      <c r="G89" s="51"/>
+      <c r="H89" s="51"/>
+      <c r="I89" s="51"/>
+      <c r="J89" s="51"/>
     </row>
     <row r="90" spans="1:10" ht="12.75">
-      <c r="A90" s="40" t="s">
+      <c r="A90" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="40" t="s">
+      <c r="B90" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="40" t="s">
+      <c r="C90" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D90" s="40" t="s">
+      <c r="D90" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E90" s="40" t="s">
+      <c r="E90" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F90" s="40" t="s">
+      <c r="F90" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G90" s="40" t="s">
+      <c r="G90" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H90" s="40" t="s">
+      <c r="H90" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="I90" s="40" t="s">
+      <c r="I90" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J90" s="40" t="s">
+      <c r="J90" s="39" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="12.75">
-      <c r="A91" s="41">
+      <c r="A91" s="40">
         <v>80</v>
       </c>
-      <c r="B91" s="40" t="s">
+      <c r="B91" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="C91" s="40" t="s">
+      <c r="C91" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="40"/>
-      <c r="E91" s="40"/>
-      <c r="F91" s="41">
+      <c r="D91" s="39"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="40">
         <v>0</v>
       </c>
-      <c r="G91" s="40"/>
-      <c r="H91" s="40"/>
-      <c r="I91" s="40"/>
-      <c r="J91" s="40" t="s">
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="39" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="12.75">
-      <c r="A92" s="41">
+      <c r="A92" s="40">
         <v>81</v>
       </c>
-      <c r="B92" s="40" t="s">
+      <c r="B92" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="C92" s="40" t="s">
+      <c r="C92" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D92" s="40"/>
-      <c r="E92" s="40" t="s">
+      <c r="D92" s="39"/>
+      <c r="E92" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F92" s="40" t="s">
+      <c r="F92" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="G92" s="40" t="s">
+      <c r="G92" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="H92" s="40"/>
-      <c r="I92" s="40" t="s">
+      <c r="H92" s="39"/>
+      <c r="I92" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J92" s="40" t="s">
+      <c r="J92" s="39" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="12.75">
-      <c r="A93" s="41">
+      <c r="A93" s="40">
         <v>82</v>
       </c>
-      <c r="B93" s="40" t="s">
+      <c r="B93" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="C93" s="40" t="s">
+      <c r="C93" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="40"/>
-      <c r="E93" s="40" t="s">
+      <c r="D93" s="39"/>
+      <c r="E93" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="F93" s="41">
+      <c r="F93" s="40">
         <v>8</v>
       </c>
-      <c r="G93" s="40" t="s">
+      <c r="G93" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H93" s="40"/>
-      <c r="I93" s="40" t="s">
+      <c r="H93" s="39"/>
+      <c r="I93" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="J93" s="40" t="s">
+      <c r="J93" s="39" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="12.75">
-      <c r="A94" s="41">
+      <c r="A94" s="40">
         <v>83</v>
       </c>
-      <c r="B94" s="40" t="s">
+      <c r="B94" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="C94" s="40" t="s">
+      <c r="C94" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D94" s="40"/>
-      <c r="E94" s="40" t="s">
+      <c r="D94" s="39"/>
+      <c r="E94" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F94" s="40" t="s">
+      <c r="F94" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="G94" s="40" t="s">
+      <c r="G94" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="H94" s="40" t="s">
+      <c r="H94" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I94" s="40" t="s">
+      <c r="I94" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="J94" s="40" t="s">
+      <c r="J94" s="39" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A95" s="41">
+      <c r="A95" s="40">
         <v>84</v>
       </c>
-      <c r="B95" s="40" t="s">
+      <c r="B95" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="C95" s="40" t="s">
+      <c r="C95" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40" t="s">
+      <c r="D95" s="39"/>
+      <c r="E95" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="F95" s="40" t="s">
+      <c r="F95" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="G95" s="40" t="s">
+      <c r="G95" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="H95" s="40" t="s">
+      <c r="H95" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="I95" s="40" t="s">
+      <c r="I95" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="J95" s="40" t="s">
+      <c r="J95" s="39" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4710,293 +4716,293 @@
       <c r="A96" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B96" s="40"/>
-      <c r="C96" s="40"/>
-      <c r="D96" s="40"/>
-      <c r="E96" s="40"/>
-      <c r="F96" s="40"/>
-      <c r="G96" s="40"/>
-      <c r="H96" s="40"/>
-      <c r="I96" s="40"/>
-      <c r="J96" s="40"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="39"/>
+      <c r="H96" s="39"/>
+      <c r="I96" s="39"/>
+      <c r="J96" s="39"/>
     </row>
     <row r="97" spans="1:10" s="2" customFormat="1" ht="13.5" thickBot="1">
       <c r="A97" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B97" s="40"/>
-      <c r="C97" s="40"/>
-      <c r="D97" s="40"/>
-      <c r="E97" s="40"/>
-      <c r="F97" s="40"/>
-      <c r="G97" s="40"/>
-      <c r="H97" s="40"/>
-      <c r="I97" s="40"/>
-      <c r="J97" s="40"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="39"/>
     </row>
     <row r="98" spans="1:10" thickBot="1">
-      <c r="A98" s="59">
+      <c r="A98" s="58">
         <v>256</v>
       </c>
-      <c r="B98" s="59">
+      <c r="B98" s="58">
         <v>64</v>
       </c>
-      <c r="C98" s="59">
+      <c r="C98" s="58">
         <v>3</v>
       </c>
-      <c r="D98" s="52"/>
-      <c r="E98" s="52"/>
-      <c r="F98" s="52"/>
-      <c r="G98" s="52"/>
-      <c r="H98" s="52"/>
-      <c r="I98" s="52"/>
-      <c r="J98" s="52"/>
+      <c r="D98" s="51"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="51"/>
+      <c r="I98" s="51"/>
+      <c r="J98" s="51"/>
     </row>
     <row r="99" spans="1:10" ht="12.75">
-      <c r="A99" s="42" t="s">
+      <c r="A99" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="42" t="s">
+      <c r="B99" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C99" s="42" t="s">
+      <c r="C99" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D99" s="42" t="s">
+      <c r="D99" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E99" s="42" t="s">
+      <c r="E99" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F99" s="42" t="s">
+      <c r="F99" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G99" s="42" t="s">
+      <c r="G99" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="H99" s="42" t="s">
+      <c r="H99" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="I99" s="42" t="s">
+      <c r="I99" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="J99" s="42" t="s">
+      <c r="J99" s="41" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="12.75">
-      <c r="A100" s="43">
+      <c r="A100" s="42">
         <v>67</v>
       </c>
-      <c r="B100" s="42" t="s">
+      <c r="B100" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="C100" s="42" t="s">
+      <c r="C100" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D100" s="42"/>
-      <c r="E100" s="42" t="s">
+      <c r="D100" s="41"/>
+      <c r="E100" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F100" s="42" t="s">
+      <c r="F100" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="G100" s="42" t="s">
+      <c r="G100" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H100" s="42"/>
-      <c r="I100" s="42"/>
-      <c r="J100" s="42" t="s">
+      <c r="H100" s="41"/>
+      <c r="I100" s="41"/>
+      <c r="J100" s="41" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="12.75">
-      <c r="A101" s="43">
+      <c r="A101" s="42">
         <v>68</v>
       </c>
-      <c r="B101" s="42" t="s">
+      <c r="B101" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="C101" s="42" t="s">
+      <c r="C101" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D101" s="42"/>
-      <c r="E101" s="42" t="s">
+      <c r="D101" s="41"/>
+      <c r="E101" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="42" t="s">
+      <c r="F101" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="G101" s="42" t="s">
+      <c r="G101" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H101" s="42"/>
-      <c r="I101" s="42" t="s">
+      <c r="H101" s="41"/>
+      <c r="I101" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="J101" s="42" t="s">
+      <c r="J101" s="41" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="12.75">
-      <c r="A102" s="43">
+      <c r="A102" s="42">
         <v>69</v>
       </c>
-      <c r="B102" s="42" t="s">
+      <c r="B102" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="C102" s="42" t="s">
+      <c r="C102" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D102" s="42"/>
-      <c r="E102" s="42" t="s">
+      <c r="D102" s="41"/>
+      <c r="E102" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="F102" s="42" t="s">
+      <c r="F102" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="G102" s="42" t="s">
+      <c r="G102" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="H102" s="42" t="s">
+      <c r="H102" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I102" s="42" t="s">
+      <c r="I102" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="J102" s="42" t="s">
+      <c r="J102" s="41" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="15">
-      <c r="A103" s="52"/>
-      <c r="B103" s="52"/>
-      <c r="C103" s="44">
+      <c r="A103" s="51"/>
+      <c r="B103" s="51"/>
+      <c r="C103" s="43">
         <v>6</v>
       </c>
-      <c r="D103" s="52"/>
-      <c r="E103" s="52"/>
-      <c r="F103" s="52"/>
-      <c r="G103" s="52"/>
-      <c r="H103" s="52"/>
-      <c r="I103" s="52"/>
-      <c r="J103" s="52"/>
+      <c r="D103" s="51"/>
+      <c r="E103" s="51"/>
+      <c r="F103" s="51"/>
+      <c r="G103" s="51"/>
+      <c r="H103" s="51"/>
+      <c r="I103" s="51"/>
+      <c r="J103" s="51"/>
     </row>
     <row r="104" spans="1:10" ht="12.75">
-      <c r="A104" s="45" t="s">
+      <c r="A104" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="45" t="s">
+      <c r="B104" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C104" s="45" t="s">
+      <c r="C104" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D104" s="45" t="s">
+      <c r="D104" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E104" s="45" t="s">
+      <c r="E104" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F104" s="45" t="s">
+      <c r="F104" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G104" s="45" t="s">
+      <c r="G104" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="H104" s="45" t="s">
+      <c r="H104" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="I104" s="45" t="s">
+      <c r="I104" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="J104" s="45" t="s">
+      <c r="J104" s="44" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="12.75">
-      <c r="A105" s="46">
+      <c r="A105" s="45">
         <v>82</v>
       </c>
-      <c r="B105" s="45" t="s">
+      <c r="B105" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="C105" s="45" t="s">
+      <c r="C105" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D105" s="45"/>
-      <c r="E105" s="45" t="s">
+      <c r="D105" s="44"/>
+      <c r="E105" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="F105" s="45" t="s">
+      <c r="F105" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="G105" s="45" t="s">
+      <c r="G105" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="H105" s="45"/>
-      <c r="I105" s="45" t="s">
+      <c r="H105" s="44"/>
+      <c r="I105" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J105" s="45" t="s">
+      <c r="J105" s="44" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="12.75">
-      <c r="A106" s="46">
+      <c r="A106" s="45">
         <v>83</v>
       </c>
-      <c r="B106" s="45" t="s">
+      <c r="B106" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="C106" s="45" t="s">
+      <c r="C106" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D106" s="45"/>
-      <c r="E106" s="45" t="s">
+      <c r="D106" s="44"/>
+      <c r="E106" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="F106" s="45" t="s">
+      <c r="F106" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="G106" s="45" t="s">
+      <c r="G106" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="H106" s="45"/>
-      <c r="I106" s="45" t="s">
+      <c r="H106" s="44"/>
+      <c r="I106" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="J106" s="45" t="s">
+      <c r="J106" s="44" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="13.5" thickBot="1">
-      <c r="A107" s="46">
+      <c r="A107" s="45">
         <v>84</v>
       </c>
-      <c r="B107" s="45" t="s">
+      <c r="B107" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="C107" s="45" t="s">
+      <c r="C107" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D107" s="45"/>
-      <c r="E107" s="45" t="s">
+      <c r="D107" s="44"/>
+      <c r="E107" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="F107" s="45" t="s">
+      <c r="F107" s="44" t="s">
         <v>270</v>
       </c>
-      <c r="G107" s="45" t="s">
+      <c r="G107" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="H107" s="45" t="s">
+      <c r="H107" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="I107" s="45" t="s">
+      <c r="I107" s="44" t="s">
         <v>271</v>
       </c>
-      <c r="J107" s="45" t="s">
+      <c r="J107" s="44" t="s">
         <v>272</v>
       </c>
     </row>
@@ -5004,15 +5010,15 @@
       <c r="A108" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B108" s="45"/>
-      <c r="C108" s="45"/>
-      <c r="D108" s="45"/>
-      <c r="E108" s="45"/>
-      <c r="F108" s="45"/>
-      <c r="G108" s="45"/>
-      <c r="H108" s="45"/>
-      <c r="I108" s="45"/>
-      <c r="J108" s="45"/>
+      <c r="B108" s="44"/>
+      <c r="C108" s="44"/>
+      <c r="D108" s="44"/>
+      <c r="E108" s="44"/>
+      <c r="F108" s="44"/>
+      <c r="G108" s="44"/>
+      <c r="H108" s="44"/>
+      <c r="I108" s="44"/>
+      <c r="J108" s="44"/>
     </row>
     <row r="109" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A109" s="4" t="s">
@@ -5020,232 +5026,232 @@
       </c>
     </row>
     <row r="110" spans="1:10" thickBot="1">
-      <c r="A110" s="60">
+      <c r="A110" s="59">
         <v>128</v>
       </c>
-      <c r="B110" s="60">
+      <c r="B110" s="59">
         <v>16</v>
       </c>
-      <c r="C110" s="60">
+      <c r="C110" s="59">
         <v>3</v>
       </c>
-      <c r="D110" s="52"/>
-      <c r="E110" s="52"/>
-      <c r="F110" s="52"/>
-      <c r="G110" s="52"/>
-      <c r="H110" s="52"/>
-      <c r="I110" s="52"/>
-      <c r="J110" s="52"/>
+      <c r="D110" s="51"/>
+      <c r="E110" s="51"/>
+      <c r="F110" s="51"/>
+      <c r="G110" s="51"/>
+      <c r="H110" s="51"/>
+      <c r="I110" s="51"/>
+      <c r="J110" s="51"/>
     </row>
     <row r="111" spans="1:10" ht="12.75">
-      <c r="A111" s="47" t="s">
+      <c r="A111" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B111" s="47" t="s">
+      <c r="B111" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C111" s="47" t="s">
+      <c r="C111" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D111" s="47" t="s">
+      <c r="D111" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E111" s="47" t="s">
+      <c r="E111" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F111" s="47" t="s">
+      <c r="F111" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G111" s="47" t="s">
+      <c r="G111" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="H111" s="47" t="s">
+      <c r="H111" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="I111" s="47" t="s">
+      <c r="I111" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="J111" s="47" t="s">
+      <c r="J111" s="46" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="12.75">
-      <c r="A112" s="48">
+      <c r="A112" s="47">
         <v>68</v>
       </c>
-      <c r="B112" s="47" t="s">
+      <c r="B112" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="C112" s="47" t="s">
+      <c r="C112" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D112" s="47"/>
-      <c r="E112" s="47"/>
-      <c r="F112" s="48">
+      <c r="D112" s="46"/>
+      <c r="E112" s="46"/>
+      <c r="F112" s="47">
         <v>0</v>
       </c>
-      <c r="G112" s="47"/>
-      <c r="H112" s="47"/>
-      <c r="I112" s="47" t="s">
+      <c r="G112" s="46"/>
+      <c r="H112" s="46"/>
+      <c r="I112" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="J112" s="47" t="s">
+      <c r="J112" s="46" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="12.75">
-      <c r="A113" s="48">
+      <c r="A113" s="47">
         <v>69</v>
       </c>
-      <c r="B113" s="47" t="s">
+      <c r="B113" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C113" s="47" t="s">
+      <c r="C113" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D113" s="47"/>
-      <c r="E113" s="47" t="s">
+      <c r="D113" s="46"/>
+      <c r="E113" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="F113" s="48">
+      <c r="F113" s="47">
         <v>100</v>
       </c>
-      <c r="G113" s="47" t="s">
+      <c r="G113" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H113" s="47"/>
-      <c r="I113" s="47" t="s">
+      <c r="H113" s="46"/>
+      <c r="I113" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="J113" s="47" t="s">
+      <c r="J113" s="46" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="15">
-      <c r="A114" s="52"/>
-      <c r="B114" s="52"/>
-      <c r="C114" s="44">
+      <c r="A114" s="51"/>
+      <c r="B114" s="51"/>
+      <c r="C114" s="43">
         <v>6</v>
       </c>
-      <c r="D114" s="52"/>
-      <c r="E114" s="52"/>
-      <c r="F114" s="52"/>
-      <c r="G114" s="52"/>
-      <c r="H114" s="52"/>
-      <c r="I114" s="52"/>
-      <c r="J114" s="52"/>
+      <c r="D114" s="51"/>
+      <c r="E114" s="51"/>
+      <c r="F114" s="51"/>
+      <c r="G114" s="51"/>
+      <c r="H114" s="51"/>
+      <c r="I114" s="51"/>
+      <c r="J114" s="51"/>
     </row>
     <row r="115" spans="1:10" ht="12.75">
-      <c r="A115" s="49" t="s">
+      <c r="A115" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="49" t="s">
+      <c r="B115" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C115" s="49" t="s">
+      <c r="C115" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D115" s="49" t="s">
+      <c r="D115" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E115" s="49" t="s">
+      <c r="E115" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F115" s="49" t="s">
+      <c r="F115" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G115" s="49" t="s">
+      <c r="G115" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="H115" s="49" t="s">
+      <c r="H115" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="I115" s="49" t="s">
+      <c r="I115" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="J115" s="49" t="s">
+      <c r="J115" s="48" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="12.75">
-      <c r="A116" s="50">
+      <c r="A116" s="49">
         <v>82</v>
       </c>
-      <c r="B116" s="49" t="s">
+      <c r="B116" s="48" t="s">
         <v>280</v>
       </c>
-      <c r="C116" s="49" t="s">
+      <c r="C116" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D116" s="49"/>
-      <c r="E116" s="49" t="s">
+      <c r="D116" s="48"/>
+      <c r="E116" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F116" s="49" t="s">
+      <c r="F116" s="48" t="s">
         <v>281</v>
       </c>
-      <c r="G116" s="49" t="s">
+      <c r="G116" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="H116" s="49"/>
-      <c r="I116" s="49" t="s">
+      <c r="H116" s="48"/>
+      <c r="I116" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="J116" s="49" t="s">
+      <c r="J116" s="48" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="12.75">
-      <c r="A117" s="50">
+      <c r="A117" s="49">
         <v>83</v>
       </c>
-      <c r="B117" s="49" t="s">
+      <c r="B117" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="C117" s="49" t="s">
+      <c r="C117" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D117" s="49"/>
-      <c r="E117" s="49"/>
-      <c r="F117" s="50">
+      <c r="D117" s="48"/>
+      <c r="E117" s="48"/>
+      <c r="F117" s="49">
         <v>0</v>
       </c>
-      <c r="G117" s="49"/>
-      <c r="H117" s="49"/>
-      <c r="I117" s="49" t="s">
+      <c r="G117" s="48"/>
+      <c r="H117" s="48"/>
+      <c r="I117" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="J117" s="49" t="s">
+      <c r="J117" s="48" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="12.75">
-      <c r="A118" s="50">
+      <c r="A118" s="49">
         <v>84</v>
       </c>
-      <c r="B118" s="49" t="s">
+      <c r="B118" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="C118" s="49" t="s">
+      <c r="C118" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D118" s="49"/>
-      <c r="E118" s="49" t="s">
+      <c r="D118" s="48"/>
+      <c r="E118" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F118" s="49" t="s">
+      <c r="F118" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="G118" s="49" t="s">
+      <c r="G118" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H118" s="49" t="s">
+      <c r="H118" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I118" s="49" t="s">
+      <c r="I118" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="J118" s="49" t="s">
+      <c r="J118" s="48" t="s">
         <v>133</v>
       </c>
     </row>
@@ -23585,8 +23591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z520"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M40" sqref="J39:M40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -25669,8 +25675,8 @@
       <c r="E54" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="F54" s="6">
-        <v>43232</v>
+      <c r="F54" s="61" t="s">
+        <v>588</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>510</v>
@@ -27689,8 +27695,8 @@
       <c r="E106" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F106" s="6">
-        <v>43232</v>
+      <c r="F106" s="61" t="s">
+        <v>588</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>12</v>
@@ -27729,7 +27735,7 @@
       <c r="E107" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F107" s="3">
+      <c r="F107" s="60">
         <v>25</v>
       </c>
       <c r="G107" s="4" t="s">
@@ -27809,8 +27815,8 @@
       <c r="E109" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F109" s="6">
-        <v>43232</v>
+      <c r="F109" s="61" t="s">
+        <v>588</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>12</v>
